--- a/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
+++ b/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
@@ -145,7 +145,7 @@
     <definedName name="障害票ツール区分">#REF!</definedName>
     <definedName name="重要度">[4]基本情報!$L$17:$M$66</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="114210" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -153,15 +153,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>生产部署</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>组别</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>1日（白）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2日（白）</t>
@@ -204,7 +204,7 @@
   </si>
   <si>
     <t>1日（夜）</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>2日（夜）</t>
@@ -349,25 +349,22 @@
   </si>
   <si>
     <t>工厂</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>注意：“M”为当月稼动，“N”为下月稼动，空为非稼动。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -549,27 +546,7 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -578,13 +555,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="56"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -626,7 +596,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,12 +728,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +894,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1044,7 +1008,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,52 +1040,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="37"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="37" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="30" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="32" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="37" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="37" applyBorder="1"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="3" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="56">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1168,18 +1101,17 @@
     <cellStyle name="解释性文本" xfId="42" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="43" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="44" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="千位分隔" xfId="45" builtinId="3"/>
-    <cellStyle name="强调文字颜色 1" xfId="46" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="47" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="48" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="49" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="52" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="53" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="54" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="未定義" xfId="55"/>
-    <cellStyle name="注释" xfId="56" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="46" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="51" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="52" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="53" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="未定義" xfId="54"/>
+    <cellStyle name="注释" xfId="55" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5928,10 +5860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:BN35"/>
+  <dimension ref="A1:BN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="75" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="BO1" sqref="BO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5944,2520 +5876,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="30.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
-      <c r="BG1" s="20"/>
-      <c r="BH1" s="20"/>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="22"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
     </row>
     <row r="2" spans="1:66" ht="28.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BN2" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-    </row>
-    <row r="4" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-    </row>
-    <row r="5" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="13"/>
-      <c r="BE5" s="13"/>
-      <c r="BF5" s="13"/>
-      <c r="BG5" s="13"/>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="13"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="13"/>
-      <c r="BN5" s="13"/>
-    </row>
-    <row r="6" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13"/>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13"/>
-      <c r="BE6" s="13"/>
-      <c r="BF6" s="13"/>
-      <c r="BG6" s="13"/>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13"/>
-      <c r="BK6" s="13"/>
-      <c r="BL6" s="13"/>
-      <c r="BM6" s="13"/>
-      <c r="BN6" s="13"/>
-    </row>
-    <row r="7" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
-      <c r="BD7" s="13"/>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
-      <c r="BH7" s="13"/>
-      <c r="BI7" s="13"/>
-      <c r="BJ7" s="13"/>
-      <c r="BK7" s="13"/>
-      <c r="BL7" s="13"/>
-      <c r="BM7" s="13"/>
-      <c r="BN7" s="13"/>
-    </row>
-    <row r="8" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="13"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-    </row>
-    <row r="9" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="13"/>
-      <c r="AW9" s="13"/>
-      <c r="AX9" s="13"/>
-      <c r="AY9" s="13"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BB9" s="13"/>
-      <c r="BC9" s="13"/>
-      <c r="BD9" s="13"/>
-      <c r="BE9" s="13"/>
-      <c r="BF9" s="13"/>
-      <c r="BG9" s="13"/>
-      <c r="BH9" s="13"/>
-      <c r="BI9" s="13"/>
-      <c r="BJ9" s="13"/>
-      <c r="BK9" s="13"/>
-      <c r="BL9" s="13"/>
-      <c r="BM9" s="13"/>
-      <c r="BN9" s="13"/>
-    </row>
-    <row r="10" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="13"/>
-      <c r="BE10" s="13"/>
-      <c r="BF10" s="13"/>
-      <c r="BG10" s="13"/>
-      <c r="BH10" s="13"/>
-      <c r="BI10" s="13"/>
-      <c r="BJ10" s="13"/>
-      <c r="BK10" s="13"/>
-      <c r="BL10" s="13"/>
-      <c r="BM10" s="13"/>
-      <c r="BN10" s="13"/>
-    </row>
-    <row r="11" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="13"/>
-      <c r="BD11" s="13"/>
-      <c r="BE11" s="13"/>
-      <c r="BF11" s="13"/>
-      <c r="BG11" s="13"/>
-      <c r="BH11" s="13"/>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13"/>
-      <c r="BK11" s="13"/>
-      <c r="BL11" s="13"/>
-      <c r="BM11" s="13"/>
-      <c r="BN11" s="13"/>
-    </row>
-    <row r="12" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="13"/>
-      <c r="AW12" s="13"/>
-      <c r="AX12" s="13"/>
-      <c r="AY12" s="13"/>
-      <c r="AZ12" s="13"/>
-      <c r="BA12" s="13"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="13"/>
-      <c r="BD12" s="13"/>
-      <c r="BE12" s="13"/>
-      <c r="BF12" s="13"/>
-      <c r="BG12" s="13"/>
-      <c r="BH12" s="13"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="13"/>
-      <c r="BK12" s="13"/>
-      <c r="BL12" s="13"/>
-      <c r="BM12" s="13"/>
-      <c r="BN12" s="13"/>
-    </row>
-    <row r="13" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="13"/>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="13"/>
-      <c r="BF13" s="13"/>
-      <c r="BG13" s="13"/>
-      <c r="BH13" s="13"/>
-      <c r="BI13" s="13"/>
-      <c r="BJ13" s="13"/>
-      <c r="BK13" s="13"/>
-      <c r="BL13" s="13"/>
-      <c r="BM13" s="13"/>
-      <c r="BN13" s="13"/>
-    </row>
-    <row r="14" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="13"/>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
-      <c r="BF14" s="13"/>
-      <c r="BG14" s="13"/>
-      <c r="BH14" s="13"/>
-      <c r="BI14" s="13"/>
-      <c r="BJ14" s="13"/>
-      <c r="BK14" s="13"/>
-      <c r="BL14" s="13"/>
-      <c r="BM14" s="13"/>
-      <c r="BN14" s="13"/>
-    </row>
-    <row r="15" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="13"/>
-      <c r="BF15" s="13"/>
-      <c r="BG15" s="13"/>
-      <c r="BH15" s="13"/>
-      <c r="BI15" s="13"/>
-      <c r="BJ15" s="13"/>
-      <c r="BK15" s="13"/>
-      <c r="BL15" s="13"/>
-      <c r="BM15" s="13"/>
-      <c r="BN15" s="13"/>
-    </row>
-    <row r="16" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
-      <c r="BF16" s="13"/>
-      <c r="BG16" s="13"/>
-      <c r="BH16" s="13"/>
-      <c r="BI16" s="13"/>
-      <c r="BJ16" s="13"/>
-      <c r="BK16" s="13"/>
-      <c r="BL16" s="13"/>
-      <c r="BM16" s="13"/>
-      <c r="BN16" s="13"/>
-    </row>
-    <row r="17" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="13"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
-      <c r="BF17" s="13"/>
-      <c r="BG17" s="13"/>
-      <c r="BH17" s="13"/>
-      <c r="BI17" s="13"/>
-      <c r="BJ17" s="13"/>
-      <c r="BK17" s="13"/>
-      <c r="BL17" s="13"/>
-      <c r="BM17" s="13"/>
-      <c r="BN17" s="13"/>
-    </row>
-    <row r="18" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
-      <c r="BF18" s="13"/>
-      <c r="BG18" s="13"/>
-      <c r="BH18" s="13"/>
-      <c r="BI18" s="13"/>
-      <c r="BJ18" s="13"/>
-      <c r="BK18" s="13"/>
-      <c r="BL18" s="13"/>
-      <c r="BM18" s="13"/>
-      <c r="BN18" s="13"/>
-    </row>
-    <row r="19" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-      <c r="BJ19" s="13"/>
-      <c r="BK19" s="13"/>
-      <c r="BL19" s="13"/>
-      <c r="BM19" s="13"/>
-      <c r="BN19" s="13"/>
-    </row>
-    <row r="20" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="13"/>
-      <c r="BF20" s="13"/>
-      <c r="BG20" s="13"/>
-      <c r="BH20" s="13"/>
-      <c r="BI20" s="13"/>
-      <c r="BJ20" s="13"/>
-      <c r="BK20" s="13"/>
-      <c r="BL20" s="13"/>
-      <c r="BM20" s="13"/>
-      <c r="BN20" s="13"/>
-    </row>
-    <row r="21" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
-      <c r="BH21" s="13"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="13"/>
-      <c r="BK21" s="13"/>
-      <c r="BL21" s="13"/>
-      <c r="BM21" s="13"/>
-      <c r="BN21" s="13"/>
-    </row>
-    <row r="22" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="13"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="13"/>
-      <c r="BK22" s="13"/>
-      <c r="BL22" s="13"/>
-      <c r="BM22" s="13"/>
-      <c r="BN22" s="13"/>
-    </row>
-    <row r="23" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-    </row>
-    <row r="24" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
-      <c r="AN24" s="16"/>
-      <c r="AO24" s="16"/>
-      <c r="AP24" s="16"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="16"/>
-      <c r="AS24" s="16"/>
-      <c r="AT24" s="16"/>
-      <c r="AU24" s="16"/>
-      <c r="AV24" s="16"/>
-      <c r="AW24" s="16"/>
-      <c r="AX24" s="16"/>
-      <c r="AY24" s="16"/>
-      <c r="AZ24" s="16"/>
-      <c r="BA24" s="16"/>
-      <c r="BB24" s="16"/>
-      <c r="BC24" s="16"/>
-      <c r="BD24" s="16"/>
-      <c r="BE24" s="16"/>
-      <c r="BF24" s="16"/>
-      <c r="BG24" s="16"/>
-      <c r="BH24" s="16"/>
-      <c r="BI24" s="16"/>
-      <c r="BJ24" s="16"/>
-      <c r="BK24" s="16"/>
-      <c r="BL24" s="16"/>
-      <c r="BM24" s="16"/>
-      <c r="BN24" s="16"/>
-    </row>
-    <row r="25" spans="1:66" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
-      <c r="AN25" s="16"/>
-      <c r="AO25" s="16"/>
-      <c r="AP25" s="16"/>
-      <c r="AQ25" s="16"/>
-      <c r="AR25" s="16"/>
-      <c r="AS25" s="16"/>
-      <c r="AT25" s="16"/>
-      <c r="AU25" s="16"/>
-      <c r="AV25" s="16"/>
-      <c r="AW25" s="16"/>
-      <c r="AX25" s="16"/>
-      <c r="AY25" s="16"/>
-      <c r="AZ25" s="16"/>
-      <c r="BA25" s="16"/>
-      <c r="BB25" s="16"/>
-      <c r="BC25" s="16"/>
-      <c r="BD25" s="16"/>
-      <c r="BE25" s="16"/>
-      <c r="BF25" s="16"/>
-      <c r="BG25" s="16"/>
-      <c r="BH25" s="16"/>
-      <c r="BI25" s="16"/>
-      <c r="BJ25" s="16"/>
-      <c r="BK25" s="16"/>
-      <c r="BL25" s="16"/>
-      <c r="BM25" s="16"/>
-      <c r="BN25" s="16"/>
-    </row>
-    <row r="26" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="16"/>
-      <c r="AO26" s="16"/>
-      <c r="AP26" s="16"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-      <c r="AS26" s="16"/>
-      <c r="AT26" s="16"/>
-      <c r="AU26" s="16"/>
-      <c r="AV26" s="16"/>
-      <c r="AW26" s="16"/>
-      <c r="AX26" s="16"/>
-      <c r="AY26" s="16"/>
-      <c r="AZ26" s="16"/>
-      <c r="BA26" s="16"/>
-      <c r="BB26" s="16"/>
-      <c r="BC26" s="16"/>
-      <c r="BD26" s="16"/>
-      <c r="BE26" s="16"/>
-      <c r="BF26" s="16"/>
-      <c r="BG26" s="16"/>
-      <c r="BH26" s="16"/>
-      <c r="BI26" s="16"/>
-      <c r="BJ26" s="16"/>
-      <c r="BK26" s="16"/>
-      <c r="BL26" s="16"/>
-      <c r="BM26" s="16"/>
-      <c r="BN26" s="16"/>
-    </row>
-    <row r="27" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="16"/>
-      <c r="AO27" s="16"/>
-      <c r="AP27" s="16"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-      <c r="AS27" s="16"/>
-      <c r="AT27" s="16"/>
-      <c r="AU27" s="16"/>
-      <c r="AV27" s="16"/>
-      <c r="AW27" s="16"/>
-      <c r="AX27" s="16"/>
-      <c r="AY27" s="16"/>
-      <c r="AZ27" s="16"/>
-      <c r="BA27" s="16"/>
-      <c r="BB27" s="16"/>
-      <c r="BC27" s="16"/>
-      <c r="BD27" s="16"/>
-      <c r="BE27" s="16"/>
-      <c r="BF27" s="16"/>
-      <c r="BG27" s="16"/>
-      <c r="BH27" s="16"/>
-      <c r="BI27" s="16"/>
-      <c r="BJ27" s="16"/>
-      <c r="BK27" s="16"/>
-      <c r="BL27" s="16"/>
-      <c r="BM27" s="16"/>
-      <c r="BN27" s="16"/>
-    </row>
-    <row r="28" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="16"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="16"/>
-      <c r="AO28" s="16"/>
-      <c r="AP28" s="16"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="16"/>
-      <c r="AS28" s="16"/>
-      <c r="AT28" s="16"/>
-      <c r="AU28" s="16"/>
-      <c r="AV28" s="16"/>
-      <c r="AW28" s="16"/>
-      <c r="AX28" s="16"/>
-      <c r="AY28" s="16"/>
-      <c r="AZ28" s="16"/>
-      <c r="BA28" s="16"/>
-      <c r="BB28" s="16"/>
-      <c r="BC28" s="16"/>
-      <c r="BD28" s="16"/>
-      <c r="BE28" s="16"/>
-      <c r="BF28" s="16"/>
-      <c r="BG28" s="16"/>
-      <c r="BH28" s="16"/>
-      <c r="BI28" s="16"/>
-      <c r="BJ28" s="16"/>
-      <c r="BK28" s="16"/>
-      <c r="BL28" s="16"/>
-      <c r="BM28" s="16"/>
-      <c r="BN28" s="16"/>
-    </row>
-    <row r="29" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="16"/>
-      <c r="AO29" s="16"/>
-      <c r="AP29" s="16"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-      <c r="AS29" s="16"/>
-      <c r="AT29" s="16"/>
-      <c r="AU29" s="16"/>
-      <c r="AV29" s="16"/>
-      <c r="AW29" s="16"/>
-      <c r="AX29" s="16"/>
-      <c r="AY29" s="16"/>
-      <c r="AZ29" s="16"/>
-      <c r="BA29" s="16"/>
-      <c r="BB29" s="16"/>
-      <c r="BC29" s="16"/>
-      <c r="BD29" s="16"/>
-      <c r="BE29" s="16"/>
-      <c r="BF29" s="16"/>
-      <c r="BG29" s="16"/>
-      <c r="BH29" s="16"/>
-      <c r="BI29" s="16"/>
-      <c r="BJ29" s="16"/>
-      <c r="BK29" s="16"/>
-      <c r="BL29" s="16"/>
-      <c r="BM29" s="16"/>
-      <c r="BN29" s="16"/>
-    </row>
-    <row r="30" spans="1:66">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
-      <c r="BF30" s="13"/>
-      <c r="BG30" s="13"/>
-      <c r="BH30" s="13"/>
-      <c r="BI30" s="13"/>
-      <c r="BJ30" s="13"/>
-      <c r="BK30" s="13"/>
-      <c r="BL30" s="13"/>
-      <c r="BM30" s="13"/>
-      <c r="BN30" s="13"/>
-    </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="13"/>
-      <c r="BK31" s="13"/>
-      <c r="BL31" s="13"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="13"/>
-    </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
-      <c r="BE32" s="13"/>
-      <c r="BF32" s="13"/>
-      <c r="BG32" s="13"/>
-      <c r="BH32" s="13"/>
-      <c r="BI32" s="13"/>
-      <c r="BJ32" s="13"/>
-      <c r="BK32" s="13"/>
-      <c r="BL32" s="13"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="13"/>
-    </row>
-    <row r="33" spans="1:66">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="13"/>
-      <c r="AV33" s="13"/>
-      <c r="AW33" s="13"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="13"/>
-      <c r="AZ33" s="13"/>
-      <c r="BA33" s="13"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="13"/>
-      <c r="BD33" s="13"/>
-      <c r="BE33" s="13"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="13"/>
-      <c r="BH33" s="13"/>
-      <c r="BI33" s="13"/>
-      <c r="BJ33" s="13"/>
-      <c r="BK33" s="13"/>
-      <c r="BL33" s="13"/>
-      <c r="BM33" s="13"/>
-      <c r="BN33" s="13"/>
-    </row>
-    <row r="34" spans="1:66">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="13"/>
-      <c r="BA34" s="13"/>
-      <c r="BB34" s="13"/>
-      <c r="BC34" s="13"/>
-      <c r="BD34" s="13"/>
-      <c r="BE34" s="13"/>
-      <c r="BF34" s="13"/>
-      <c r="BG34" s="13"/>
-      <c r="BH34" s="13"/>
-      <c r="BI34" s="13"/>
-      <c r="BJ34" s="13"/>
-      <c r="BK34" s="13"/>
-      <c r="BL34" s="13"/>
-      <c r="BM34" s="13"/>
-      <c r="BN34" s="13"/>
-    </row>
-    <row r="35" spans="1:66">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="13"/>
-      <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
-      <c r="BH35" s="13"/>
-      <c r="BI35" s="13"/>
-      <c r="BJ35" s="13"/>
-      <c r="BK35" s="13"/>
-      <c r="BL35" s="13"/>
-      <c r="BM35" s="13"/>
-      <c r="BN35" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>

--- a/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
+++ b/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
@@ -53,7 +53,7 @@
     <definedName name="kose">#REF!</definedName>
     <definedName name="LISTとPGMALLとの差分">#REF!</definedName>
     <definedName name="PJTBL">[3]マスター!$E$3:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BN$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BN$35</definedName>
     <definedName name="_xlnm.Print_Titles">#REF!</definedName>
     <definedName name="q">#REF!</definedName>
     <definedName name="Q_C3M00プロジェクトタイムライン">#REF!</definedName>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>生产部署</t>
     <phoneticPr fontId="28" type="noConversion"/>
@@ -355,6 +355,10 @@
     <t>类别</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>注意：“M”为当月稼动，“N”为下月稼动，空为非稼动。</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -373,12 +377,14 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -583,6 +589,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -726,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -878,6 +920,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1026,7 +1077,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="37"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="37" applyFill="1"/>
@@ -1062,6 +1113,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="37" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1370,6 +1429,999 @@
       <sheetName val=" :”_x0013_ 0é0°     ReQ_x0005_"/>
       <sheetName val="コールトラック"/>
       <sheetName val="ナレッジ"/>
+      <sheetName val=":”_x0013_"/>
+      <sheetName val="1.3.6.4.ReturnMonthCmd"/>
+      <sheetName val="1.3.6.4.main"/>
+      <sheetName val="1.3.6.4._execute"/>
+      <sheetName val="更新履歴"/>
+      <sheetName val="チェック表"/>
+      <sheetName val="チェック表(月次上)"/>
+      <sheetName val="チェック表(月次中)"/>
+      <sheetName val="チェック表(月次下)"/>
+      <sheetName val="１－１"/>
+      <sheetName val="別紙１"/>
+      <sheetName val="１－２"/>
+      <sheetName val="支払指図書データ（困窮時）(5ĮÒ.1.3)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等 (5.1.2)栠"/>
+      <sheetName val="個社機能)概要"/>
+      <sheetName val="個社機能)詳細"/>
+      <sheetName val="共通機能記述（概要）"/>
+      <sheetName val="変更履歴"/>
+      <sheetName val="定義書"/>
+      <sheetName val="処理記述"/>
+      <sheetName val="パラメータ領域定義"/>
+      <sheetName val="JOB一覧 (給与)"/>
+      <sheetName val="JOB一覧 (賞与)"/>
+      <sheetName val="JOB一覧 (差額）"/>
+      <sheetName val="JOB一覧 (単独年調）"/>
+      <sheetName val="JOB一覧(年個）"/>
+      <sheetName val="データ編集 (HEN001)"/>
+      <sheetName val="データ編集 (HEN002)"/>
+      <sheetName val="データ編集 (HEN003)"/>
+      <sheetName val="データ編集 (GIPA035)"/>
+      <sheetName val="データ編集 (GIPZ005)"/>
+      <sheetName val="データ編集 (GIPZ074)"/>
+      <sheetName val="データ編集 (GIPZ075)"/>
+      <sheetName val="オペ表示項目一覧"/>
+      <sheetName val="エラーメッセージ"/>
+      <sheetName val="補足説明"/>
+      <sheetName val="フォーム・共通機能記述（概要）"/>
+      <sheetName val="指図書データ（プラン単位）_x0008_10.2)"/>
+      <sheetName val="JOBｸﾞﾙｰﾌﾟﾌﾛｰ"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛｰ (2)"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛｰ"/>
+      <sheetName val="JOBﾌﾛｰ原紙"/>
+      <sheetName val="☆★☆参考→"/>
+      <sheetName val="Ｘweb_ＪＯＢ－カタプロ"/>
+      <sheetName val="Ｘweb_ＪＯＢ構成"/>
+      <sheetName val="XJOBﾈｯﾄ"/>
+      <sheetName val="BIPG120_Ｐ６作表"/>
+      <sheetName val="旧031114)BIPG120_Ｐ６作表"/>
+      <sheetName val="Ｘ旧）BIPG120_Ｐ６作表"/>
+      <sheetName val="031127)BIPG120_Ｐ６作表"/>
+      <sheetName val="目次・共通"/>
+      <sheetName val="目次・外部ｺｰﾄﾞ"/>
+      <sheetName val="目次・受信"/>
+      <sheetName val="目次・送信"/>
+      <sheetName val="目次・給与"/>
+      <sheetName val="目次・賞与"/>
+      <sheetName val="目次・差額"/>
+      <sheetName val="目次・社保"/>
+      <sheetName val="目次・私共済"/>
+      <sheetName val="目次・地方税"/>
+      <sheetName val=":”_x0013__x0000_0é0°_x0000_ ReQ_x0005_€"/>
+      <sheetName val="para"/>
+      <sheetName val="目次・年調"/>
+      <sheetName val="目次・振込"/>
+      <sheetName val="目次・会社情報"/>
+      <sheetName val="目次・臨時"/>
+      <sheetName val="目次・帳票"/>
+      <sheetName val="目次・業務"/>
+      <sheetName val="変更管理シート"/>
+      <sheetName val="帳票（年個）"/>
+      <sheetName val="JOB一覧(共通）"/>
+      <sheetName val="AssySupps"/>
+      <sheetName val="運用"/>
+      <sheetName val="ﾃｽﾄｹｰｽ一覧"/>
+      <sheetName val="☆データ条件★"/>
+      <sheetName val="★データ編集Ⅱ-2-(1)"/>
+      <sheetName val="☆B010計算"/>
+      <sheetName val="☆B010(A031)振込計算"/>
+      <sheetName val="☆★☆ITEM→"/>
+      <sheetName val="☆★☆ITEM→ (2)"/>
+      <sheetName val="Ｘ　☆★☆計算→"/>
+      <sheetName val="人DB給DBﾏｯﾁﾝｸﾞ"/>
+      <sheetName val="I_Oﾌｧｲﾙ"/>
+      <sheetName val="I_OﾌｧｲﾙＸ"/>
+      <sheetName val="原本"/>
+      <sheetName val="ﾃｽﾄｹｰｽ一覧(2Ｘ)"/>
+      <sheetName val="予算問題点 "/>
+      <sheetName val="退職事由等(µ.2.3.2) (2)"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000___x0015__x0000__x0000__"/>
+      <sheetName val=""/>
+      <sheetName val=":”_x0013__x0000_0_0°_x0000_ ReQ_x0005_\"/>
+      <sheetName val="改訂履歴 "/>
+      <sheetName val="１．目的と背景"/>
+      <sheetName val="２．概要（全体流れ）"/>
+      <sheetName val="３．影響範囲"/>
+      <sheetName val="４．手順説明"/>
+      <sheetName val="５．補足事項"/>
+      <sheetName val="&gt;&gt;添付資料(サンプル)"/>
+      <sheetName val="オンラインデータ集計"/>
+      <sheetName val="バッチデータ集計"/>
+      <sheetName val="総レコード数推移"/>
+      <sheetName val="&gt;&gt;チェックシート"/>
+      <sheetName val="（添付）詳細手順＆チェック（１）"/>
+      <sheetName val="（添付）詳細手順＆チェック（２）"/>
+      <sheetName val="（添付）詳細手順＆チェック（３）"/>
+      <sheetName val="ローン要件情報(加入者）㓌9.1.1)"/>
+      <sheetName val="対象加入者属性情䠱(10.1.4)"/>
+      <sheetName val="加入者属性情報(10.5_5)"/>
+      <sheetName val="_”_x0013_"/>
+      <sheetName val=" _”_x0013_ 0é0°     ReQ_x0005_"/>
+      <sheetName val="加入者ᱞ性(9.2.3)"/>
+      <sheetName val=":”_x0013__x0000_0é0°_x0000_ Re壆【_x0000_"/>
+      <sheetName val="e-CRB PYRX300 S5"/>
+      <sheetName val="Overview"/>
+      <sheetName val="加入者拠出金変更 (2.321.3.2)(2)"/>
+      <sheetName val="☆★☆ITEM→ ԰_x0000_缀"/>
+      <sheetName val="☆★☆ITEM→ 　᝛"/>
+      <sheetName val="☆★☆ITEM→ 䀀᭗"/>
+      <sheetName val="☆★☆ITEM→ 꽇ԯ"/>
+      <sheetName val="☆★☆ITEM→ 敇ԯ"/>
+      <sheetName val="☆★☆ITEM→ ｇԯ"/>
+      <sheetName val="支払完了ステータス(5.3.2)"/>
+      <sheetName val="加入者ステータス等(5.1.1)"/>
+      <sheetName val="加入者ステータス等 (5.1.2) "/>
+      <sheetName val="加入者ステータス等(5.1.3) "/>
+      <sheetName val="加入者ステータス区分(5.2.1)"/>
+      <sheetName val="加入者ステータス区分(5.2.3.1)"/>
+      <sheetName val="加入者ステータス区分 (5.2.3.2)"/>
+      <sheetName val="支払済ステータス（5.3.2）"/>
+      <sheetName val="プラン脱退情報(5.3.2)"/>
+      <sheetName val="ローン要件情報(加入者）⻌9.1.1)"/>
+      <sheetName val="検証確認シート"/>
+      <sheetName val="Supplier Master IF"/>
+      <sheetName val="df一覧hs"/>
+      <sheetName val="見積書"/>
+      <sheetName val="590P追加"/>
+      <sheetName val="Selections"/>
+      <sheetName val="目次쌄촅/"/>
+      <sheetName val="目次・׃】_x0000_"/>
+      <sheetName val="df쌂眅/_x0000_"/>
+      <sheetName val="df쌀眅/_x0000_"/>
+      <sheetName val="dfက_x0000_耀菃"/>
+      <sheetName val="df쌍ꨅ/_x0000_"/>
+      <sheetName val="df/_x0000_:"/>
+      <sheetName val="df쌆봅/_x0000_"/>
+      <sheetName val="目次㔀቎԰"/>
+      <sheetName val="df_x0000__x0000_က浳"/>
+      <sheetName val="目次・_x0005__x0000__x0000_"/>
+      <sheetName val="393_N"/>
+      <sheetName val="NOV"/>
+      <sheetName val="チェ_xd817_䀵_x0000_"/>
+      <sheetName val="チェ/_x0000_퀀"/>
+      <sheetName val="チェ렀蝓㬀"/>
+      <sheetName val="チェ0_x0000_퀀"/>
+      <sheetName val="改訂朂ե0"/>
+      <sheetName val="チェ朄摥0"/>
+      <sheetName val="BIPG120__x0005__x0000__x0000__x0000_"/>
+      <sheetName val="par_x0000_"/>
+      <sheetName val="支払指図書データ（退職）(5_2_1_1)"/>
+      <sheetName val="支払指図書データ（税引後）(5_2_1_2)"/>
+      <sheetName val="支払指図書データ（困窮時）(5_2_1_3)"/>
+      <sheetName val="支払指図書データ（一時払）(5_2_1_4)"/>
+      <sheetName val="RO指図書データ（RO証明書）(5_2_1_5)"/>
+      <sheetName val="RO指図書データ（RO取崩）(5_2_1_6)"/>
+      <sheetName val="支払指図書データ（プラン外年金）(5_2_1_7)"/>
+      <sheetName val="異動情報(5_2_1_11)"/>
+      <sheetName val="RO移管払出適格証明請求情報(5_2_2)"/>
+      <sheetName val="退職通知書情報(5_2_3_1)"/>
+      <sheetName val="個人型受給者情報(5_2_3_2)"/>
+      <sheetName val="売却情報(5_2_4_1)"/>
+      <sheetName val="33260(3_2_2_3)"/>
+      <sheetName val="33260(3_2_2_７)"/>
+      <sheetName val="ローン内容登録情報（変更異動）(9_1_1)"/>
+      <sheetName val="売却情報1(9_1_2)"/>
+      <sheetName val="売却指図情報(9_1_2)"/>
+      <sheetName val="実行ステータス情報(9_2_1)"/>
+      <sheetName val="売却完了情報(9_2_1)"/>
+      <sheetName val="売却完了情報(9_2_2)"/>
+      <sheetName val="実行ステータス情報(9_2_3)"/>
+      <sheetName val="一括返済額情報(9_3_1)"/>
+      <sheetName val="入金予定額情報（一括時のみ）(9_3_3)"/>
+      <sheetName val="売却時情報(9_3_5)"/>
+      <sheetName val="33403(3_4)"/>
+      <sheetName val="33518(3_5_4)"/>
+      <sheetName val="33519(3_5_5)"/>
+      <sheetName val="33602(3_6)"/>
+      <sheetName val="24201(4_2_1)"/>
+      <sheetName val="24235(4_2_2)"/>
+      <sheetName val="24215(4_2_4)"/>
+      <sheetName val="24322(4_3_4)"/>
+      <sheetName val="24323(4_3_4)"/>
+      <sheetName val="24404(4_4_2)"/>
+      <sheetName val="24422(4_4_2)"/>
+      <sheetName val="24409(4_4_3)"/>
+      <sheetName val="24410(4_4_3)"/>
+      <sheetName val="24411(4_4_4)"/>
+      <sheetName val="24424(4_4_4)"/>
+      <sheetName val="24502(4_5)"/>
+      <sheetName val="保有数量(5_2_3_3)"/>
+      <sheetName val="売却商品(5_2_4_4)"/>
+      <sheetName val="資産処分明細情報(5_3)"/>
+      <sheetName val="支払完了ｽﾃｰﾀｽ(5_3_2)"/>
+      <sheetName val="加入者別商品売却情報(6_1_1)"/>
+      <sheetName val="発注情報(6_1_2)"/>
+      <sheetName val="発注情報(6_1_4)"/>
+      <sheetName val="個人型売却結果(6_2_4)"/>
+      <sheetName val="加入者別商品売却情報(6_3_2)"/>
+      <sheetName val="約定済情報(6_3_2)"/>
+      <sheetName val="加入者別商品売却情報(6_3_3)"/>
+      <sheetName val="売却結果按分情報(6_3_3)"/>
+      <sheetName val="売却結果按分情報(6_3_4)"/>
+      <sheetName val="約定済情報(6_3_4)"/>
+      <sheetName val="加入者別商品売却情報(6_4_1)"/>
+      <sheetName val="加入者別対象残高(7_2)"/>
+      <sheetName val="個人型収益明細情報_(7_3_5)"/>
+      <sheetName val="対象残高（按分用）(7_3_6)"/>
+      <sheetName val="加入者別収益明細情報(7_3_6)"/>
+      <sheetName val="加入者別収益明細情報(7_3_7)"/>
+      <sheetName val="加入者別収益情報(7_3_8)"/>
+      <sheetName val="個人型収益情報(7_4)"/>
+      <sheetName val="個人型買付指図情報(7_4)"/>
+      <sheetName val="対象残高（按分用）(7_5_1)"/>
+      <sheetName val="再投資結果按分情報(7_5_1)"/>
+      <sheetName val="買付取引明細(9_3_5)"/>
+      <sheetName val="加入者別売却指図取引明細（10_3）"/>
+      <sheetName val="資産売却情報（加入者別)(10_5_1)"/>
+      <sheetName val="移管済ステータス(10_5_6)"/>
+      <sheetName val="33515(3_5_3)"/>
+      <sheetName val="33516(3_5_4)"/>
+      <sheetName val="指図書データ（プラン単位）(10_2)"/>
+      <sheetName val="売却指図(10_3)"/>
+      <sheetName val="移行先情報(10_5_1)"/>
+      <sheetName val="加入者証変更情報(2_1_2_3)"/>
+      <sheetName val="加入者口座存在有無(2_2)"/>
+      <sheetName val="加入者口座登録情報(2_3_1_1_3)"/>
+      <sheetName val="加入者証発行区分(2_3_1_6)"/>
+      <sheetName val="加入者証発行区分(2_3_1_6)_(2)"/>
+      <sheetName val="加入者口座変更(2_3_1_2_3)"/>
+      <sheetName val="加入者口座変更_(2_3_1_2_3)(2)"/>
+      <sheetName val="加入者拠出金変更(2_3_1_3_2)"/>
+      <sheetName val="加入者拠出金変更_(2_3_1_3_2)(2)"/>
+      <sheetName val="ＲＯ加入者口座登録情報(2_3_1_5_3)"/>
+      <sheetName val="加入者口座情報(2_3_3)"/>
+      <sheetName val="33112(3_1_1_4)"/>
+      <sheetName val="33151(3_1_2_1)"/>
+      <sheetName val="33153(3_12_2)"/>
+      <sheetName val="33165(3_1_2_5)"/>
+      <sheetName val="33253(3_2_2_1)"/>
+      <sheetName val="33334(3_3_7)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等(5_1_1)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等_(5_1_2)_"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等(5_1_3)_"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ区分(5_2_1)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ区分(5_2_3_1)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ区分_(5_2_3_2)"/>
+      <sheetName val="支払済ｽﾃｰﾀｽ（5_3_2）"/>
+      <sheetName val="受取人情報（5_3_3）"/>
+      <sheetName val="加入者口座情報(6_1_4)"/>
+      <sheetName val="有効プラン加入者(7_1_2)"/>
+      <sheetName val="加入者キー情報(8_3_1)"/>
+      <sheetName val="ローン要件情報(加入者）(9_1_1)"/>
+      <sheetName val="決済口座情報(9_2_2)"/>
+      <sheetName val="返済順序方法(9_3_5)"/>
+      <sheetName val="加入者口座属性情報(10_5_2)"/>
+      <sheetName val="加入者口座属性情報(10_5_4)"/>
+      <sheetName val="従業員名寄せ情報(2_1_1_1)"/>
+      <sheetName val="加入者属性登録情報(2_1_1_3)"/>
+      <sheetName val="変更前従業員属性情報(2_1_2_1)"/>
+      <sheetName val="従業員確認書情報(2_1_2_2)"/>
+      <sheetName val="加入者属性変更情報(2_1_2_3)"/>
+      <sheetName val="加入者証情報(2_1_2_3)"/>
+      <sheetName val="従業員属性情報(2_1_3)"/>
+      <sheetName val="募集用加入通知書情報(2_2)"/>
+      <sheetName val="加入者存在有無(2_3_1_1_1)"/>
+      <sheetName val="加入者属性登録情報(2_3_1_1_2)"/>
+      <sheetName val="加入者属性変更(2_3_1_2)"/>
+      <sheetName val="加入者属性変更(2_3_1_2)_(2)"/>
+      <sheetName val="加入者名情報(2_3_1_3_2)"/>
+      <sheetName val="加入者名情報(2_3_1_6)"/>
+      <sheetName val="33139(3_1_1__4)"/>
+      <sheetName val="33503(3_5_1)"/>
+      <sheetName val="33603(3_6)"/>
+      <sheetName val="24213(4_2_4)"/>
+      <sheetName val="24229(4_2_5)"/>
+      <sheetName val="生年月日・現況区分(5_1_1)"/>
+      <sheetName val="生年月日・現況区分_(5_1_2)"/>
+      <sheetName val="生年月日・現況区分(5_1_3)_"/>
+      <sheetName val="加入者属性情報(5_2_1)"/>
+      <sheetName val="加入者属性情報(5_2_2)"/>
+      <sheetName val="退職事由等(5_2_3_1)"/>
+      <sheetName val="退職事由等(5_2_3_2)_(2)"/>
+      <sheetName val="加入者属性情報(5_2_3)"/>
+      <sheetName val="加入者属性情報(5_3_1)"/>
+      <sheetName val="ﾌﾟﾗﾝ脱退情報(5_3_2)"/>
+      <sheetName val="加入者属性情報(5_3_3_1)"/>
+      <sheetName val="加入者属性情報(5_3_3_2)"/>
+      <sheetName val="加入者属性情報(5_3_4_3)"/>
+      <sheetName val="企業情報(6_1_2)"/>
+      <sheetName val="加入者属性情報(6_1_4)"/>
+      <sheetName val="加入者属性情報(6_1_5)"/>
+      <sheetName val="加入者属性情報(7_1_2)"/>
+      <sheetName val="加入属性情報(9_1_1)"/>
+      <sheetName val="加入者属性(9_2_3)"/>
+      <sheetName val="延滞情報(9_4_1)"/>
+      <sheetName val="対象加入者属性情報(10_1_4)"/>
+      <sheetName val="加入者属性情報(10_5_2)"/>
+      <sheetName val="加入者属性情報(10_5_4)"/>
+      <sheetName val="加入者属性情報(10_5_5)"/>
+      <sheetName val="加入者属性情報(5_3_19"/>
+      <sheetName val="情報系_(ID)"/>
+      <sheetName val="情報系_(ED)"/>
+      <sheetName val="改定履歴_"/>
+      <sheetName val="_IHS設定"/>
+      <sheetName val="A-AUTO運用ルール(2003_11_28)"/>
+      <sheetName val="A-AUTO命名規約(2003_12_17)"/>
+      <sheetName val="pfcaドライバ2_2_1インストール"/>
+      <sheetName val="pfcaドライバ2_2_1コンフィグ"/>
+      <sheetName val="UKE2_係コード"/>
+      <sheetName val="UKE2_係コード_(2)"/>
+      <sheetName val="加入老名情報(2_3_1_3_2)"/>
+      <sheetName val="加入者属性情報(10_5*5)"/>
+      <sheetName val="加入者キヸ情報(8_3_1)"/>
+      <sheetName val="個人型受給者情報(1_2_3_2)"/>
+      <sheetName val="再投賃結果按分情報(7_5_1)"/>
+      <sheetName val="変更前従業員属性惁報(2_1_2_1)"/>
+      <sheetName val="加兡者属性情報(5_3_4_3)"/>
+      <sheetName val="加兡者別商品売却情報(6_4_1)"/>
+      <sheetName val="加入者刡商品売却情報(6_4_1)"/>
+      <sheetName val="加入老別売却指図取引明細（10_3）"/>
+      <sheetName val="加入老別商品売却情報(6_4_1)"/>
+      <sheetName val="保按数量(5_2_3_3)"/>
+      <sheetName val="支払済ｽﾃﭰﾀｽ（5_3_2）"/>
+      <sheetName val="加入老属性情報(5_3_3_2)"/>
+      <sheetName val="33003(3_4)"/>
+      <sheetName val="加入者塞性情報(5_2_2)"/>
+      <sheetName val="TSM_Server"/>
+      <sheetName val="変更前従業員属性_報(2_1_2_1)"/>
+      <sheetName val="加_者属性情報(5_3_4_3)"/>
+      <sheetName val="加_者別商品売却情報(6_4_1)"/>
+      <sheetName val="加入者_商品売却情報(6_4_1)"/>
+      <sheetName val="支払済ｽﾃ_ﾀｽ（5_3_2）"/>
+      <sheetName val="加入者属性盻録情報(2_3_1_1_2)"/>
+      <sheetName val="加入者ｽﾃｰﾀ+⽘饦"/>
+      <sheetName val=":0é0° ReQ"/>
+      <sheetName val="支払完了ｽﾃｰﾀ(5_3_2)"/>
+      <sheetName val="退職事由獉(5_2_3_1)"/>
+      <sheetName val=":”0é0° ReQ"/>
+      <sheetName val="加入者ｽﾃｰﾀ"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等_(5_±_2)_"/>
+      <sheetName val="加入者ｽﾃｰﾀ___+_⽘__饦"/>
+      <sheetName val="_:”_0é0°____ ReQ"/>
+      <sheetName val="1_3_6_4_ReturnMonthCmd"/>
+      <sheetName val="1_3_6_4_main"/>
+      <sheetName val="1_3_6_4__execute"/>
+      <sheetName val=":”"/>
+      <sheetName val="支払指図書データ（困窮時）(5ĮÒ_1_3)"/>
+      <sheetName val="加入者ｽﾃｰﾀｽ等_(5_1_2)栠"/>
+      <sheetName val="JOB一覧_(給与)"/>
+      <sheetName val="JOB一覧_(賞与)"/>
+      <sheetName val="JOB一覧_(差額）"/>
+      <sheetName val="JOB一覧_(単独年調）"/>
+      <sheetName val="データ編集_(HEN001)"/>
+      <sheetName val="データ編集_(HEN002)"/>
+      <sheetName val="データ編集_(HEN003)"/>
+      <sheetName val="データ編集_(GIPA035)"/>
+      <sheetName val="データ編集_(GIPZ005)"/>
+      <sheetName val="データ編集_(GIPZ074)"/>
+      <sheetName val="データ編集_(GIPZ075)"/>
+      <sheetName val="指図書データ（プラン単位）10_2)"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛｰ_(2)"/>
+      <sheetName val="33519_x0001__x0000_.5.5)"/>
+      <sheetName val="dfက_x0000_뀀ᾅ"/>
+      <sheetName val="df砯¬_x0000__x0000_"/>
+      <sheetName val="df/_x0000_倀_x001f_"/>
+      <sheetName val="dfက_x0000_蠀ऱ"/>
+      <sheetName val="予実績管理表"/>
+      <sheetName val="ヘッダ"/>
+      <sheetName val="df_xd805_⨳䠀퐓"/>
+      <sheetName val="df脁穦0_x0000_"/>
+      <sheetName val="df栆ᐸ저ᯖ"/>
+      <sheetName val="改訂ꀀ_xdadb_錦"/>
+      <sheetName val=" :”_x0013_ 0é0°     ReQ_x0005_€"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002_???+?⽘_x0015_??饦"/>
+      <sheetName val="?:_x0013_?0é0°???? ReQ_x0005_"/>
+      <sheetName val=":”_x0013_?0é0°? ReQ_x0005_"/>
+      <sheetName val="?:”_x0013_?0é0°???? ReQ_x0005_€"/>
+      <sheetName val="目次䈀౪԰"/>
+      <sheetName val="データ編集 (HEN0헾"/>
+      <sheetName val="支払指図書データ（一時払）(5.2.1㸀ᰀ̀"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0005__x0000__x0000__x0000__x0002_"/>
+      <sheetName val="改訂/_x0000_ꀀ"/>
+      <sheetName val="改訂쐄/"/>
+      <sheetName val="改訂︀ᇕ԰"/>
+      <sheetName val="改訂/_x0000_"/>
+      <sheetName val="改訂砀᡿︀"/>
+      <sheetName val="改訂荨%莬"/>
+      <sheetName val="改訂ࠊᶘ倀"/>
+      <sheetName val="改訂ԯ_x0000_缀"/>
+      <sheetName val="質問・回答"/>
+      <sheetName val="基本情報"/>
+      <sheetName val="_x0000_:?_x0013__x0000_0?0?_x0000__x0000__x0000__x0000_?ReQ_x0005_?"/>
+      <sheetName val="目次莘,菜"/>
+      <sheetName val="目次헾】_x0005_"/>
+      <sheetName val="目次壐-夜"/>
+      <sheetName val="改訂渀腷԰"/>
+      <sheetName val="目次匨_x001a_橂"/>
+      <sheetName val="JOBﾌﾛｰ_x0005__x0000_"/>
+      <sheetName val="目次壐_x001f_夜"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ壐_x001f_夜_x001f_丵"/>
+      <sheetName val="目次橂⾔_x0005_"/>
+      <sheetName val="目次_x0005__x0000_"/>
+      <sheetName val="目次夐-奜"/>
+      <sheetName val="目次헾⾣_x0005_"/>
+      <sheetName val="ﾃｽﾄﾃﾞｰﾀ一覧"/>
+      <sheetName val="目次夰_x0015_奼"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0005__x0000__x0000__x0000_"/>
+      <sheetName val="改訂ᰀᥙ搀"/>
+      <sheetName val="目次囀!ꮸ"/>
+      <sheetName val="目次噼0囄"/>
+      <sheetName val="改訂䀀❗렀"/>
+      <sheetName val="目次址'ꮸ"/>
+      <sheetName val="目次嗠_x0014_嘬"/>
+      <sheetName val="目次坰$䟣"/>
+      <sheetName val="改訂_x0005__x0000_"/>
+      <sheetName val="改訂蔘%蕜"/>
+      <sheetName val="改訂㒕⿴_x0005_"/>
+      <sheetName val="目次愤%矺"/>
+      <sheetName val="目次X_x0000_茸"/>
+      <sheetName val="目次齘_x0013_龜"/>
+      <sheetName val="改訂헾】_x0005_"/>
+      <sheetName val="目次尜_x0013_層"/>
+      <sheetName val="目次喠1闰"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾】_x0005__x0000_"/>
+      <sheetName val="改訂地_x0013_闰"/>
+      <sheetName val="目次罤皛閜"/>
+      <sheetName val="目次徸〒_x0005_"/>
+      <sheetName val="目次尜_x0012_層"/>
+      <sheetName val="改訂耀≙찀"/>
+      <sheetName val="目次墐 壜"/>
+      <sheetName val="改訂頀ᙕ㔀"/>
+      <sheetName val="目次丵⼭_x0005_"/>
+      <sheetName val="改訂ꀀす"/>
+      <sheetName val="改訂쀀⅖렀"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ夜_x0019_奤_x0019_ꮸ"/>
+      <sheetName val="目次勰_x0018_匼"/>
+      <sheetName val="改訂ᰀ፜搀"/>
+      <sheetName val="目次丵⾭_x0005_"/>
+      <sheetName val="目次唈-丵"/>
+      <sheetName val="目次剰%劼"/>
+      <sheetName val="改訂剰%劼"/>
+      <sheetName val="目次嚈$丵"/>
+      <sheetName val="Pull Down"/>
+      <sheetName val="目次ꮸ⿴_x0005_"/>
+      <sheetName val="目次嚰_x0016_ꮸ"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ嚰_x0016_ꮸ⿍_x0005_"/>
+      <sheetName val="改訂ꮸ⿴_x0005_"/>
+      <sheetName val="目次匸!丵"/>
+      <sheetName val="目次丵⼮_x0005_"/>
+      <sheetName val="改訂怀ᙖ가"/>
+      <sheetName val="目次޹⿔_x0005_"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x005f_x0002__x005f_x0000__x005f_x0000__x0"/>
+      <sheetName val="_x005f_x0000___x005f_x0013__x005f_x0000_0é0°_x00"/>
+      <sheetName val="_”_x005f_x0013__x005f_x0000_0é0°_x005f_x0000_ ReQ"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x005f_x0002_"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x005f_x0002_   + ⽘_x005f_x0015_  饦"/>
+      <sheetName val=" _”_x005f_x0013_ 0é0°     ReQ_x005f_x0005_"/>
+      <sheetName val="_”_x005f_x0013_"/>
+      <sheetName val="目次肘_x0015_헾"/>
+      <sheetName val="目次聨,肬"/>
+      <sheetName val="改訂堀)塌"/>
+      <sheetName val="目次_x0000__x0000__x0005_"/>
+      <sheetName val="目次䑲⼒_x0000_"/>
+      <sheetName val="目次_x0000__x0000_䃈"/>
+      <sheetName val="目次_x0000__x0000_鶐"/>
+      <sheetName val="改訂_x0000__x0000_栀"/>
+      <sheetName val="目次嗨_x0013_橂"/>
+      <sheetName val="目次妀B姌"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ薈=藌=헾"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ吐ĉ呜ĉ丵"/>
+      <sheetName val="目次丵⾴_x0005_"/>
+      <sheetName val="目次叀8同"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ妀B姌B丵"/>
+      <sheetName val="改訂耀䉙찀"/>
+      <sheetName val="目次垸B橂"/>
+      <sheetName val="改訂Ꝧ\"/>
+      <sheetName val="目次敧ぶ_x0000_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ耸_x001e_헾⿛_x0005_"/>
+      <sheetName val="☆★☆쨎扡0"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛퟐ彻m_x0000_릡"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ勈_x0018_ⱂ⼣_x0005_"/>
+      <sheetName val="01損益見通 ３－６ｼｽ"/>
+      <sheetName val="目次0_x0000_頀"/>
+      <sheetName val="目次က_x0000_䠀"/>
+      <sheetName val="目次・外部ｺ_x0010__x0000_㳨"/>
+      <sheetName val="目次爅齄/"/>
+      <sheetName val="目次က_x0000_ꠀ"/>
+      <sheetName val="目次က_x0000_ "/>
+      <sheetName val="目次/_x0000_㠀"/>
+      <sheetName val="目次/_x0000__x0000_"/>
+      <sheetName val="df0_x0000_뀀U"/>
+      <sheetName val="df0_x0000_䠀º"/>
+      <sheetName val="df줒/_x0000_"/>
+      <sheetName val="df0_x0000_頀K"/>
+      <sheetName val="df줃㵥0_x0000_"/>
+      <sheetName val="df줊㵥0_x0000_"/>
+      <sheetName val="Properties"/>
+      <sheetName val="目次0_x0000_怀"/>
+      <sheetName val="目次쨈譡0"/>
+      <sheetName val="目次쨁譡0"/>
+      <sheetName val="df_x0001__x0000_瀀㼕"/>
+      <sheetName val="目次0_x0000_蠀"/>
+      <sheetName val="目次・_x0000__x0000_鲰"/>
+      <sheetName val="目次・_x0000__x0000_뽐"/>
+      <sheetName val="目次・׃⿹_x0000_"/>
+      <sheetName val="df0_x0000_"/>
+      <sheetName val="df/_x0000__x0000_^"/>
+      <sheetName val="ANEXO_1_2000"/>
+      <sheetName val="加入者属性情報(ᠵ㦆ꉠ赈鵛륿"/>
+      <sheetName val="退職事由等(µ.2.3._x0000__x0000_덈_x0000__x0000__x0000_"/>
+      <sheetName val="目次/_x0000_堀"/>
+      <sheetName val="目次/_x0000_怀"/>
+      <sheetName val="目次/_x0000_瀀"/>
+      <sheetName val="目次/_x0000_䠀"/>
+      <sheetName val="問題点"/>
+      <sheetName val="インプット (2)"/>
+      <sheetName val="一覧表"/>
+      <sheetName val="１経費台帳"/>
+      <sheetName val="２全経費科目集計表"/>
+      <sheetName val="☆★☆က_x0000_"/>
+      <sheetName val="改訂0_x0000_䀀"/>
+      <sheetName val="☆★☆က_x0000_က"/>
+      <sheetName val="☆★☆က_x0000_瀀"/>
+      <sheetName val="☆★☆/_x0000_砀"/>
+      <sheetName val="☆★☆က_x0000__xd800_"/>
+      <sheetName val="☆★☆က_x0000_⠀"/>
+      <sheetName val="☆★☆က_x0000_㠀"/>
+      <sheetName val="☆★☆_xdc02_/"/>
+      <sheetName val="記述要領"/>
+      <sheetName val="目次/_x0000_ꀀ"/>
+      <sheetName val="df/_x0000_÷"/>
+      <sheetName val="目次/_x0000_ꠀ"/>
+      <sheetName val="目次・外部ｺ_x0000__x0000_왘"/>
+      <sheetName val="目次_xd805_ᢇ堀"/>
+      <sheetName val="parØ"/>
+      <sheetName val="☆★☆/_x0000_　"/>
+      <sheetName val="☆★☆/_x0000_ꀀ"/>
+      <sheetName val="改訂/_x0000_"/>
+      <sheetName val="G-ALCSF"/>
+      <sheetName val="[df一覧hs.xls]_x0000_:_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013__x0000_0é0°_x0000_ ReQ_x0005_"/>
+      <sheetName val="[df一覧hs.xls] :”_x0013_ 0é0°     ReQ_x0005_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013__x0000_0é0°_x0000_ ReQ_x0005_€"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013__x0000_0_0°_x0000_ ReQ_x0005_\"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013__x0000_0é0°_x0000_ Re壆【_x0000_"/>
+      <sheetName val="目次_x0000__x0000_軀"/>
+      <sheetName val="目次챔Đ_x0000_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0000__x0000_䩘㐶▄"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0000__x0000_硈ᝃ▄"/>
+      <sheetName val="改訂 ፗ氀"/>
+      <sheetName val="改訂렀቟԰"/>
+      <sheetName val="目次劈+橂"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ劈+橂⾬_x0005_"/>
+      <sheetName val="目次䃸⿼_x0005_"/>
+      <sheetName val="改訂䠍ፓ렀"/>
+      <sheetName val="改訂䠍ፓ"/>
+      <sheetName val="改訂䠗ፓ쀀"/>
+      <sheetName val="☆★☆蠀ᾅ찀"/>
+      <sheetName val="目次嚨/橂"/>
+      <sheetName val="目次_x0000__x0000_腐"/>
+      <sheetName val="目次㵘Г槜"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ藨5헾⽤_x0005_"/>
+      <sheetName val="目次趀뽒&lt;"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾⼬_x0005__x0000_"/>
+      <sheetName val="改訂 ᛬_x0000_"/>
+      <sheetName val="改訂ꀀ꿠珮"/>
+      <sheetName val="目次醀,_x0000_"/>
+      <sheetName val="ྪ_x0004_Ѐ_x0000_"/>
+      <sheetName val="目次・外部ｺ_x0000__x0000_릠"/>
+      <sheetName val="目次・外部ｺ_x0000__x0000_⤰"/>
+      <sheetName val="目次ԯ_x0000_缀"/>
+      <sheetName val="目次砀ᒂ︀"/>
+      <sheetName val="GWサーヘー(win)設定情報"/>
+      <sheetName val="テーブル一覧1"/>
+      <sheetName val="テーブル一覧_2"/>
+      <sheetName val="テーブル一覧_3"/>
+      <sheetName val="テーブル一覧_4"/>
+      <sheetName val="テーブル一覧_計上保留システム"/>
+      <sheetName val="テーブル一覧_計上保留システム２"/>
+      <sheetName val="テーブル一覧_5"/>
+      <sheetName val="テーブル一覧_6"/>
+      <sheetName val="テーブル一覧_6 (2)"/>
+      <sheetName val="テーブル一覧_計上入金管理システム"/>
+      <sheetName val="テーブル一覧_代勘・団体オンライン"/>
+      <sheetName val="テーブル一覧_6 (4)"/>
+      <sheetName val="テーブル一覧_6 (3)"/>
+      <sheetName val="テーブル一覧_マスタ管理"/>
+      <sheetName val="テーブル一覧_マスタ管理２"/>
+      <sheetName val="テーブル一覧_マスタ管理３"/>
+      <sheetName val="テーブル一覧_マスタ管理４"/>
+      <sheetName val="テーブル一覧_マスタ管理５"/>
+      <sheetName val="テーブル一覧_マスタ管理６"/>
+      <sheetName val="テーブル一覧_マスタ管理７"/>
+      <sheetName val="テーブル一覧_マスタ管理８"/>
+      <sheetName val="Ｘweb_ＪＯＢ－カ瀀&quot;ꮸ"/>
+      <sheetName val="改訂履歴"/>
+      <sheetName val="改訂内容"/>
+      <sheetName val="1.前提"/>
+      <sheetName val="2.IPOﾀﾞｲｱｸﾞﾗﾑ(1)"/>
+      <sheetName val="2.IPOﾀﾞｲｱｸﾞﾗﾑ(2)"/>
+      <sheetName val="2.IPOﾀﾞｲｱｸﾞﾗﾑ(3)"/>
+      <sheetName val="2.IPOﾀﾞｲｱｸﾞﾗﾑ(4)"/>
+      <sheetName val="3.ﾁｪｯｸ仕様"/>
+      <sheetName val="4.編集仕様（受渡ﾊﾟﾗﾒｰﾀ）(1)"/>
+      <sheetName val="4.編集仕様（受渡ﾊﾟﾗﾒｰﾀ）(2)"/>
+      <sheetName val="4.編集仕様（受渡ﾊﾟﾗﾒｰﾀ）(3)"/>
+      <sheetName val="4.編集仕様（受渡ﾊﾟﾗﾒｰﾀ）(4)"/>
+      <sheetName val="5.データベース編集仕様"/>
+      <sheetName val="6.金銭拘束残高依頼実行一覧"/>
+      <sheetName val="7.パラメータレイアウト"/>
+      <sheetName val="8.添付資料(日本語マクロガイド)"/>
+      <sheetName val="日本語マクロガイド【NKEJ10】"/>
+      <sheetName val="VKBJ04C"/>
+      <sheetName val="目次・給_x0005_"/>
+      <sheetName val="目次・給䴻"/>
+      <sheetName val="目次・外部ｺ_x0000__x0000_碈"/>
+      <sheetName val="df옃詘0_x0000_"/>
+      <sheetName val="dfꠢᒘ剃"/>
+      <sheetName val="df0_x0000_砀"/>
+      <sheetName val="目次・表_x0012_뀀"/>
+      <sheetName val="目次・_x0000__x0000_㎀"/>
+      <sheetName val="目次・外部ｺ侘_x0019_ᙘ"/>
+      <sheetName val="01"/>
+      <sheetName val="附件5_新一线"/>
+      <sheetName val="附件5_#3工厂"/>
+      <sheetName val=":”_x0013_?0é0°? ReQ_x0005_€"/>
+      <sheetName val="98.休日マスタ（削除禁止）"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002____+_⽘_x0015___饦"/>
+      <sheetName val="___x0013__0é0°____ ReQ_x0005_"/>
+      <sheetName val="_”_x0013__0é0°_ ReQ_x0005_"/>
+      <sheetName val="031127)BIPG120_Ｐ６作︀"/>
+      <sheetName val="ｳｴｯﾄﾊﾟﾙﾌﾟ抄取日報"/>
+      <sheetName val="パルプ日報"/>
+      <sheetName val="目次・外部ｺ_x0000__x0000_쟐"/>
+      <sheetName val="[df一覧hs.xls]目次쌄촅/"/>
+      <sheetName val="[df一覧hs.xls]:0é0° ReQ"/>
+      <sheetName val="[df一覧hs.xls]:”0é0° ReQ"/>
+      <sheetName val="[df一覧hs.xls]_:”_0é0°____ ReQ"/>
+      <sheetName val="[df一覧hs.xls]:”"/>
+      <sheetName val="07年各DLR故障统计 (3)"/>
+      <sheetName val="目次︀棕ԯ"/>
+      <sheetName val="改訂︀헕ԯ"/>
+      <sheetName val="社員リスト"/>
+      <sheetName val="変更管理シ԰_x0000_"/>
+      <sheetName val="ローン要件情報(加入者）⻌9.1.䠀㊄"/>
+      <sheetName val="2002"/>
+      <sheetName val="393.N"/>
+      <sheetName val="Assembling"/>
+      <sheetName val="DATA_DELIVERY"/>
+      <sheetName val="DATA_HEAD"/>
+      <sheetName val="MASTER"/>
+      <sheetName val=" _”_x0013_ 0é0°     ReQ_x0005_€"/>
+      <sheetName val="__”_x0013__0é0°____ ReQ_x0005_€"/>
+      <sheetName val=":”⩿"/>
+      <sheetName val="変更管理シ缀_xdd2a_"/>
+      <sheetName val="ESM ver2"/>
+      <sheetName val="目次忕め_x0005_"/>
+      <sheetName val="目次_x0010__x0000_殘"/>
+      <sheetName val="目次_x0010__x0000_"/>
+      <sheetName val="目次䲰ǣ踇"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾⾠_x0005__x0000_"/>
+      <sheetName val="目次_x0000__x0000_ﱸ"/>
+      <sheetName val="☆★☆က_x0000_　"/>
+      <sheetName val="目次׃⾉_x0000_"/>
+      <sheetName val="加入者属性情報(10.5__x0000__x0000_"/>
+      <sheetName val="☆★☆㠓ᚗ頀"/>
+      <sheetName val="改訂0_x0000_ꠀ"/>
+      <sheetName val="改訂_x0000__x0000_뀀"/>
+      <sheetName val="目次/_x0000_"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002_???+?__x0015_??_"/>
+      <sheetName val=":”_x0013_?0_0°? ReQ_x0005_\"/>
+      <sheetName val="目次0_x0000_砀"/>
+      <sheetName val="目次爆籠/"/>
+      <sheetName val="目次_x0000__x0000_䥨"/>
+      <sheetName val="目次暐Ȭ੶"/>
+      <sheetName val="改訂_x0000__x0000_Ԁ"/>
+      <sheetName val="改訂爅၄0"/>
+      <sheetName val="改訂遗瘐"/>
+      <sheetName val="改訂0_x0000_ "/>
+      <sheetName val="改訂0_x0000_저"/>
+      <sheetName val="改訂爉၄0"/>
+      <sheetName val="改訂0_x0000_㠀"/>
+      <sheetName val="改訂　跹瘇"/>
+      <sheetName val="改訂退괦఍"/>
+      <sheetName val="改訂䰀ኌ԰"/>
+      <sheetName val="目次׃】_x0000_"/>
+      <sheetName val="目次_x0010__x0000_뛈"/>
+      <sheetName val="改訂0_x0000_怀"/>
+      <sheetName val="目次_x0010__x0000_᜸"/>
+      <sheetName val="目次挔_x0012_纼"/>
+      <sheetName val="改訂쌐ᄅ0"/>
+      <sheetName val="目次_x0010__x0000_렘"/>
+      <sheetName val="改訂က_x0000_瀀"/>
+      <sheetName val="改訂က_x0000_頀"/>
+      <sheetName val="改訂က_x0000_怀"/>
+      <sheetName val="目次_x0010__x0000_鋘"/>
+      <sheetName val="目次_x0010__x0000_"/>
+      <sheetName val="改訂쌀ᄅ0"/>
+      <sheetName val="目次_x0010__x0000_丸"/>
+      <sheetName val="目次_x0010__x0000_靰"/>
+      <sheetName val="目次_x0000__x0000_"/>
+      <sheetName val="改訂砀㺀밀"/>
+      <sheetName val="目次萘.헾"/>
+      <sheetName val="目次萘_x0017_葜"/>
+      <sheetName val="改訂᠀ង尀"/>
+      <sheetName val="改訂저땸ఀ"/>
+      <sheetName val="改訂렀푲ﰀ"/>
+      <sheetName val="改訂堀䶆鰀"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ啈/橂⿙_x0005_"/>
+      <sheetName val="目次艘_x001c_芜"/>
+      <sheetName val="目次徸⼚_x0005_"/>
+      <sheetName val="目次・地/_x0000_"/>
+      <sheetName val="工数見積もり "/>
+      <sheetName val="改訂/_x0000_က"/>
+      <sheetName val="改訂/_x0000_᠀"/>
+      <sheetName val="改訂က_x0000_ࠀ"/>
+      <sheetName val="目次_x0010__x0000_ⵘ"/>
+      <sheetName val="改訂᠀⺄︀"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ荨&lt;헾⽵_x0005_"/>
+      <sheetName val="目次荨&lt;헾"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0000__x0000_헨_x0000__x0000_"/>
+      <sheetName val="目次⅝L嬈"/>
+      <sheetName val="目次⅝L魐"/>
+      <sheetName val="目次⅝Lన"/>
+      <sheetName val="目次⅝L因"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ⅝L怨⁍畨"/>
+      <sheetName val="目次⪀;⪐"/>
+      <sheetName val="目次⧠E⪐"/>
+      <sheetName val="目次⽠_x001d_⪐"/>
+      <sheetName val="目次Ɒ/⪐"/>
+      <sheetName val="目次닮ĭᩐ"/>
+      <sheetName val="目次닮ĭ짐"/>
+      <sheetName val="改訂_x0000__x0000_᠀"/>
+      <sheetName val="改訂　⮒_x0000_"/>
+      <sheetName val="改訂ᥐ頀"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls][df一覧hs"/>
+      <sheetName val="グラフデータ"/>
+      <sheetName val="附件5_#2"/>
+      <sheetName val="附件5_事物馆"/>
+      <sheetName val="附件5_新一工厂"/>
+      <sheetName val="附件5_#事务馆"/>
+      <sheetName val="目次_x0000__x0000_顐"/>
+      <sheetName val="目次׃⿃_x0000_"/>
+      <sheetName val="目次_x0000__x0000_臀"/>
+      <sheetName val="目次飈_x0019_꣸"/>
+      <sheetName val="目次貘_x0019_"/>
+      <sheetName val="目次㥝⾴_x0005_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ啠$喬$多"/>
+      <sheetName val="目次_x0000__x0000_턘"/>
+      <sheetName val="☆★☆_xd807_ꐳ쀀"/>
+      <sheetName val="☆★☆_xd807_ꐳ砀"/>
+      <sheetName val="目次奠:妬"/>
+      <sheetName val="目次鈖²ࣀ"/>
+      <sheetName val="目次鈖²綐"/>
+      <sheetName val="目次Ґ_x0015_ﮈ"/>
+      <sheetName val="目次_xdf40_!_x0000_"/>
+      <sheetName val="改訂㸁㳾_x0000_"/>
+      <sheetName val="目次莘&gt;菜"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0000__x0000_뎀_x0000__x0000_"/>
+      <sheetName val="改訂_x0000__x0000_ꀀ"/>
+      <sheetName val="改訂_x0001__x0000_"/>
+      <sheetName val="改訂䈀ᅪ԰"/>
+      <sheetName val="３消費税の計算書"/>
+      <sheetName val="４経費集計表"/>
+      <sheetName val="５製品製造原価報告書"/>
+      <sheetName val="６損益計算書"/>
+      <sheetName val="７総勘定元帳"/>
+      <sheetName val="８試算表"/>
+      <sheetName val="９貸借対照表"/>
+      <sheetName val="リス0"/>
+      <sheetName val="改訂⠀⹨쨁"/>
+      <sheetName val="目次%_x0000_"/>
+      <sheetName val="改訂_xde50__x001c__x0000_"/>
+      <sheetName val="改訂倀᳞_x0000_"/>
+      <sheetName val="改訂紂ᥠ0"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ副µ_x0000_萢"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ辠副µ_x0000_萢"/>
+      <sheetName val="_x005f_x0000_:_x005f_x0013__x005f_x0000_0é0°_x00"/>
+      <sheetName val=":”_x005f_x0013__x005f_x0000_0é0°_x005f_x0000_ ReQ"/>
+      <sheetName val=" :”_x005f_x0013_ 0é0°     ReQ_x005f_x0005_"/>
+      <sheetName val=":”_x005f_x0013_"/>
+      <sheetName val="[df一覧hs.xls]_x0000_:?_x0013__x0000_0?0?_x0000__x0000__x0000__x0000_?ReQ_x0005_?"/>
+      <sheetName val="[df一覧hs.xls]改訂Ꝧ\"/>
+      <sheetName val="[df一覧hs.xls]目次嚨/橂"/>
+      <sheetName val="[df一覧hs.xls]☆★☆/_x0000_ꀀ"/>
+      <sheetName val="[df一覧hs.xls]Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ啈/橂⿙_x0005_"/>
+      <sheetName val="[df一覧hs.xls]目次・地/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]目次/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]?:_x0013_?0é0°???? ReQ_x0005_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013_?0é0°? ReQ_x0005_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013_?0_0°? ReQ_x0005_\"/>
+      <sheetName val="[df一覧hs.xls]目次爆籠/"/>
+      <sheetName val="[df一覧hs.xls] :”_x0013_ 0é0°     ReQ_x0005_€"/>
+      <sheetName val="[df一覧hs.xls]?:”_x0013_?0é0°???? ReQ_x0005_€"/>
+      <sheetName val="[df一覧hs.xls]改訂/_x0000_ꀀ"/>
+      <sheetName val="[df一覧hs.xls]改訂쐄/"/>
+      <sheetName val="[df一覧hs.xls]改訂/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]目次爅齄/"/>
+      <sheetName val="[df一覧hs.xls]改訂/_x0000_က"/>
+      <sheetName val="[df一覧hs.xls]改訂/_x0000_᠀"/>
+      <sheetName val="[df一覧hs.xls]☆★☆/_x0000_　"/>
+      <sheetName val="[df一覧hs.xls]目次Ɒ/⪐"/>
+      <sheetName val="[df一覧hs.xls]目次奠:妬"/>
+      <sheetName val="[df一覧hs.xls]:”⩿"/>
+      <sheetName val="[df一覧hs.xls]改訂/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]:”_x0013_?0é0°? ReQ_x0005_€"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]_x0000_:_x0013__x0000_0é"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]:”_x0013__x0000_0é0"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls] :”_x0013_ 0é"/>
+      <sheetName val="改訂砀ㆃ︀"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]:”_x0013_"/>
+      <sheetName val="[df一覧hs.xls]df줒/_x0000_"/>
+      <sheetName val="_x0000__x0004_"/>
+      <sheetName val="指図書データ（プラン単位）_x005f_x0008_10.2)"/>
+      <sheetName val="目次㦀ɢ_xda1b_"/>
+      <sheetName val="目次_x0000__x0000_왘"/>
+      <sheetName val="目次_x0010__x0000_❰"/>
+      <sheetName val="目次׃⽩_x0000_"/>
+      <sheetName val="目次_x0000__x0000_⋘"/>
+      <sheetName val="☆★☆ࠕ㸹ꠀ"/>
+      <sheetName val="改訂ꠛ閐뀀"/>
+      <sheetName val="改訂領羑"/>
+      <sheetName val="_df一覧hs.xls_"/>
+      <sheetName val="_df一覧hs.xls__”_x0013_"/>
+      <sheetName val="_df一覧hs.xls_ _”_x0013_ 0é0°     ReQ_x0005_"/>
+      <sheetName val="改訂ꀀẐ_x0000_"/>
+      <sheetName val="目次诐_x0015__x0000_"/>
+      <sheetName val="改訂倀ㆎ_x0000_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0000__x0000_Ā_x0000__x0005_"/>
+      <sheetName val="[df一覧hs.xls]df쌂眅/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]df쌀眅/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]df쌍ꨅ/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]df/_x0000_:"/>
+      <sheetName val="[df一覧hs.xls]df쌆봅/_x0000_"/>
+      <sheetName val="[df一覧hs.xls]チェ/_x0000_퀀"/>
+      <sheetName val="改訂듀᭻"/>
+      <sheetName val="改訂픀_xdb5f_ԯ"/>
+      <sheetName val="改訂픀䵟԰"/>
+      <sheetName val="改訂픀㹟԰"/>
+      <sheetName val="改訂Ӏ⪀䠀"/>
+      <sheetName val="改訂픀꽟ԯ"/>
+      <sheetName val="改訂픀酟ԯ"/>
+      <sheetName val="改訂擀⹹ꠀ"/>
+      <sheetName val="改訂픀䍟԰"/>
+      <sheetName val="目次_x0000__x0000_Ā"/>
+      <sheetName val="目次０ȼŚ"/>
+      <sheetName val="改訂ဓǿ娃"/>
+      <sheetName val="目次_xd9d0_&quot;_x0000_"/>
+      <sheetName val="改訂履_x0000__x0000_"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂Ꝧ\"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次嚨/橂"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次Ɒ/⪐"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]☆★☆/_x0000_ꀀ"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次・地/_x0000_"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次/_x0000_"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次爆籠/"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂/_x0000_ꀀ"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂쐄/"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂/_x0000_"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次爅齄/"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]☆★☆/_x0000_　"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂/_x0000_က"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]改訂/_x0000_᠀"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]目次奠:妬"/>
+      <sheetName val="改訂︀_xdfd5_ԯ"/>
+      <sheetName val="改訂_x0005_"/>
+      <sheetName val="目次X"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾】_x0005_"/>
+      <sheetName val="改訂Ꝧ_"/>
+      <sheetName val="改訂ԯ"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ_x0005_"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0"/>
+      <sheetName val="_x0000___x0013__x0000_0é0°_x00"/>
+      <sheetName val="_”_x0013__x0000_0é0°_x0000_ ReQ"/>
+      <sheetName val="目次嚨_橂"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛퟐ彻m"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾⼬_x0005_"/>
+      <sheetName val="☆★☆_"/>
+      <sheetName val="改訂0"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ"/>
+      <sheetName val="改訂_"/>
+      <sheetName val="改訂쐄_"/>
+      <sheetName val="目次_"/>
+      <sheetName val="加入者ｽﾃｰﾀ_x0002____+___x0015____"/>
+      <sheetName val="_”_x0013__0_0°_ ReQ_x0005__"/>
+      <sheetName val="目次0"/>
+      <sheetName val="目次爆籠_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ헾⾠_x0005_"/>
+      <sheetName val="☆★☆က"/>
+      <sheetName val="目次・地_"/>
+      <sheetName val="目次က"/>
+      <sheetName val="目次・外部ｺ_x0010_"/>
+      <sheetName val="目次爅齄_"/>
+      <sheetName val="_”⩿"/>
+      <sheetName val="変更管理シ缀"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ啈_橂⿙_x0005_"/>
+      <sheetName val="目次Ɒ_⪐"/>
+      <sheetName val="目次奠_妬"/>
+      <sheetName val="☆★☆ꐳ쀀"/>
+      <sheetName val="☆★☆ꐳ砀"/>
+      <sheetName val="目次!"/>
+      <sheetName val="目次쌄촅_"/>
+      <sheetName val="df쌂眅_"/>
+      <sheetName val="df쌀眅_"/>
+      <sheetName val="dfက"/>
+      <sheetName val="df쌍ꨅ_"/>
+      <sheetName val="df_"/>
+      <sheetName val="df쌆봅_"/>
+      <sheetName val="df"/>
+      <sheetName val="チェ䀵"/>
+      <sheetName val="チェ_"/>
+      <sheetName val="チェ0"/>
+      <sheetName val="df0"/>
+      <sheetName val="df줒_"/>
+      <sheetName val="_0é0° ReQ"/>
+      <sheetName val="_”0é0° ReQ"/>
+      <sheetName val="__”_0é0°____ ReQ"/>
+      <sheetName val="_”"/>
+      <sheetName val="33519_x0001_"/>
+      <sheetName val="df⨳䠀퐓"/>
+      <sheetName val="_”_x0013__0é0°_ ReQ_x0005_€"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ副µ"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ辠副µ"/>
+      <sheetName val="改訂_x0001_"/>
+      <sheetName val="_df一覧hs.xls__df一覧hs.xls_"/>
+      <sheetName val="_df一覧hs.xls__df一覧hs.xls__”_x0013_"/>
+      <sheetName val="_df一覧hs.xls__df一覧hs.xls_ _”_x0013_ 0é"/>
+      <sheetName val="_df一覧hs.xls_改訂Ꝧ_"/>
+      <sheetName val="_df一覧hs.xls_☆★☆_"/>
+      <sheetName val="_df一覧hs.xls_ _”_x0013_ 0é0°     ReQ_x0005_€"/>
+      <sheetName val="_df一覧hs.xls____x0013__0é0°____ ReQ_x0005_"/>
+      <sheetName val="_df一覧hs.xls__”_x0013__0é0°_ ReQ_x0005_"/>
+      <sheetName val="_df一覧hs.xls___”_x0013__0é0°____ ReQ_x0005_€"/>
+      <sheetName val="_df一覧hs.xls_改訂_"/>
+      <sheetName val="_df一覧hs.xls_改訂쐄_"/>
+      <sheetName val="_df一覧hs.xls_目次・地_"/>
+      <sheetName val="_df一覧hs.xls_目次嚨_橂"/>
+      <sheetName val="_df一覧hs.xls_目次爅齄_"/>
+      <sheetName val="_df一覧hs.xls_目次Ɒ_⪐"/>
+      <sheetName val="_df一覧hs.xls_Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ啈_橂⿙_x0005_"/>
+      <sheetName val="_df一覧hs.xls_目次_"/>
+      <sheetName val="_df一覧hs.xls__”_x0013__0_0°_ ReQ_x0005__"/>
+      <sheetName val="_df一覧hs.xls_目次爆籠_"/>
+      <sheetName val="_df一覧hs.xls__”⩿"/>
+      <sheetName val="_df一覧hs.xls_目次奠_妬"/>
+      <sheetName val="_df一覧hs.xls__df一覧hs.xls__df一覧hs"/>
+      <sheetName val="改訂_x001c_"/>
+      <sheetName val="df_x0001_"/>
+      <sheetName val="目次・"/>
+      <sheetName val="退職事由等(µ.2.3."/>
+      <sheetName val="☆★☆_"/>
+      <sheetName val="目次・外部ｺ"/>
+      <sheetName val="目次ᢇ堀"/>
+      <sheetName val="_df一覧hs.xls__”_x0013__0é0°_ ReQ_x0005_€"/>
+      <sheetName val="_df一覧hs.xls_目次쌄촅_"/>
+      <sheetName val="_df一覧hs.xls_df쌂眅_"/>
+      <sheetName val="_df一覧hs.xls_df쌀眅_"/>
+      <sheetName val="_df一覧hs.xls_df쌍ꨅ_"/>
+      <sheetName val="_df一覧hs.xls_df_"/>
+      <sheetName val="_df一覧hs.xls_df쌆봅_"/>
+      <sheetName val="_df一覧hs.xls_チェ_"/>
+      <sheetName val="_df一覧hs.xls_df줒_"/>
+      <sheetName val="☆★☆/"/>
+      <sheetName val="改訂/"/>
+      <sheetName val="df/"/>
+      <sheetName val="チェ/"/>
+      <sheetName val="[df一覧hs.xls]"/>
+      <sheetName val="[df一覧hs.xls]☆★☆/"/>
+      <sheetName val="[df一覧hs.xls]目次/"/>
+      <sheetName val="[df一覧hs.xls]改訂/"/>
+      <sheetName val="[df一覧hs.xls][df一覧hs.xls]"/>
+      <sheetName val="☆★☆ITEM→ ԰"/>
+      <sheetName val="[df一覧hs.xls]df/"/>
+      <sheetName val="[df一覧hs.xls]チェ/"/>
+      <sheetName val="目次揄⾖_x0000_"/>
+      <sheetName val="Ｘ）JOBｸﾞﾙｰﾌﾟﾌﾛ揄〷_x0000__x0000_䥨"/>
+      <sheetName val="目次_x0000__x0000__xdd58_"/>
+      <sheetName val="目次_x0000__x0000_퇸"/>
+      <sheetName val="目次_x0000__x0000_䙸"/>
+      <sheetName val="目次_x0000__x0000_镸"/>
+      <sheetName val="目次_x0000__x0000_ุ"/>
+      <sheetName val="改訂䀔䠊ꄃ"/>
+      <sheetName val="改訂က"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -1606,6 +2658,999 @@
       <sheetData sheetId="231" refreshError="1"/>
       <sheetData sheetId="232"/>
       <sheetData sheetId="233"/>
+      <sheetData sheetId="234"/>
+      <sheetData sheetId="235" refreshError="1"/>
+      <sheetData sheetId="236" refreshError="1"/>
+      <sheetData sheetId="237" refreshError="1"/>
+      <sheetData sheetId="238"/>
+      <sheetData sheetId="239"/>
+      <sheetData sheetId="240"/>
+      <sheetData sheetId="241"/>
+      <sheetData sheetId="242"/>
+      <sheetData sheetId="243"/>
+      <sheetData sheetId="244"/>
+      <sheetData sheetId="245"/>
+      <sheetData sheetId="246" refreshError="1"/>
+      <sheetData sheetId="247" refreshError="1"/>
+      <sheetData sheetId="248"/>
+      <sheetData sheetId="249"/>
+      <sheetData sheetId="250"/>
+      <sheetData sheetId="251"/>
+      <sheetData sheetId="252"/>
+      <sheetData sheetId="253"/>
+      <sheetData sheetId="254"/>
+      <sheetData sheetId="255" refreshError="1"/>
+      <sheetData sheetId="256" refreshError="1"/>
+      <sheetData sheetId="257" refreshError="1"/>
+      <sheetData sheetId="258" refreshError="1"/>
+      <sheetData sheetId="259" refreshError="1"/>
+      <sheetData sheetId="260" refreshError="1"/>
+      <sheetData sheetId="261" refreshError="1"/>
+      <sheetData sheetId="262" refreshError="1"/>
+      <sheetData sheetId="263" refreshError="1"/>
+      <sheetData sheetId="264" refreshError="1"/>
+      <sheetData sheetId="265" refreshError="1"/>
+      <sheetData sheetId="266" refreshError="1"/>
+      <sheetData sheetId="267" refreshError="1"/>
+      <sheetData sheetId="268" refreshError="1"/>
+      <sheetData sheetId="269" refreshError="1"/>
+      <sheetData sheetId="270"/>
+      <sheetData sheetId="271" refreshError="1"/>
+      <sheetData sheetId="272"/>
+      <sheetData sheetId="273"/>
+      <sheetData sheetId="274"/>
+      <sheetData sheetId="275"/>
+      <sheetData sheetId="276"/>
+      <sheetData sheetId="277"/>
+      <sheetData sheetId="278"/>
+      <sheetData sheetId="279"/>
+      <sheetData sheetId="280" refreshError="1"/>
+      <sheetData sheetId="281" refreshError="1"/>
+      <sheetData sheetId="282" refreshError="1"/>
+      <sheetData sheetId="283" refreshError="1"/>
+      <sheetData sheetId="284" refreshError="1"/>
+      <sheetData sheetId="285" refreshError="1"/>
+      <sheetData sheetId="286" refreshError="1"/>
+      <sheetData sheetId="287" refreshError="1"/>
+      <sheetData sheetId="288" refreshError="1"/>
+      <sheetData sheetId="289" refreshError="1"/>
+      <sheetData sheetId="290" refreshError="1"/>
+      <sheetData sheetId="291" refreshError="1"/>
+      <sheetData sheetId="292" refreshError="1"/>
+      <sheetData sheetId="293" refreshError="1"/>
+      <sheetData sheetId="294" refreshError="1"/>
+      <sheetData sheetId="295" refreshError="1"/>
+      <sheetData sheetId="296" refreshError="1"/>
+      <sheetData sheetId="297" refreshError="1"/>
+      <sheetData sheetId="298" refreshError="1"/>
+      <sheetData sheetId="299" refreshError="1"/>
+      <sheetData sheetId="300" refreshError="1"/>
+      <sheetData sheetId="301" refreshError="1"/>
+      <sheetData sheetId="302" refreshError="1"/>
+      <sheetData sheetId="303" refreshError="1"/>
+      <sheetData sheetId="304" refreshError="1"/>
+      <sheetData sheetId="305" refreshError="1"/>
+      <sheetData sheetId="306" refreshError="1"/>
+      <sheetData sheetId="307"/>
+      <sheetData sheetId="308"/>
+      <sheetData sheetId="309"/>
+      <sheetData sheetId="310"/>
+      <sheetData sheetId="311"/>
+      <sheetData sheetId="312"/>
+      <sheetData sheetId="313"/>
+      <sheetData sheetId="314"/>
+      <sheetData sheetId="315"/>
+      <sheetData sheetId="316"/>
+      <sheetData sheetId="317"/>
+      <sheetData sheetId="318"/>
+      <sheetData sheetId="319"/>
+      <sheetData sheetId="320"/>
+      <sheetData sheetId="321" refreshError="1"/>
+      <sheetData sheetId="322" refreshError="1"/>
+      <sheetData sheetId="323" refreshError="1"/>
+      <sheetData sheetId="324" refreshError="1"/>
+      <sheetData sheetId="325"/>
+      <sheetData sheetId="326"/>
+      <sheetData sheetId="327"/>
+      <sheetData sheetId="328"/>
+      <sheetData sheetId="329"/>
+      <sheetData sheetId="330"/>
+      <sheetData sheetId="331"/>
+      <sheetData sheetId="332"/>
+      <sheetData sheetId="333"/>
+      <sheetData sheetId="334"/>
+      <sheetData sheetId="335"/>
+      <sheetData sheetId="336"/>
+      <sheetData sheetId="337"/>
+      <sheetData sheetId="338"/>
+      <sheetData sheetId="339" refreshError="1"/>
+      <sheetData sheetId="340" refreshError="1"/>
+      <sheetData sheetId="341" refreshError="1"/>
+      <sheetData sheetId="342" refreshError="1"/>
+      <sheetData sheetId="343" refreshError="1"/>
+      <sheetData sheetId="344" refreshError="1"/>
+      <sheetData sheetId="345" refreshError="1"/>
+      <sheetData sheetId="346" refreshError="1"/>
+      <sheetData sheetId="347" refreshError="1"/>
+      <sheetData sheetId="348" refreshError="1"/>
+      <sheetData sheetId="349" refreshError="1"/>
+      <sheetData sheetId="350" refreshError="1"/>
+      <sheetData sheetId="351" refreshError="1"/>
+      <sheetData sheetId="352" refreshError="1"/>
+      <sheetData sheetId="353" refreshError="1"/>
+      <sheetData sheetId="354" refreshError="1"/>
+      <sheetData sheetId="355" refreshError="1"/>
+      <sheetData sheetId="356" refreshError="1"/>
+      <sheetData sheetId="357" refreshError="1"/>
+      <sheetData sheetId="358" refreshError="1"/>
+      <sheetData sheetId="359" refreshError="1"/>
+      <sheetData sheetId="360" refreshError="1"/>
+      <sheetData sheetId="361" refreshError="1"/>
+      <sheetData sheetId="362" refreshError="1"/>
+      <sheetData sheetId="363" refreshError="1"/>
+      <sheetData sheetId="364"/>
+      <sheetData sheetId="365" refreshError="1"/>
+      <sheetData sheetId="366" refreshError="1"/>
+      <sheetData sheetId="367" refreshError="1"/>
+      <sheetData sheetId="368" refreshError="1"/>
+      <sheetData sheetId="369" refreshError="1"/>
+      <sheetData sheetId="370" refreshError="1"/>
+      <sheetData sheetId="371" refreshError="1"/>
+      <sheetData sheetId="372"/>
+      <sheetData sheetId="373" refreshError="1"/>
+      <sheetData sheetId="374" refreshError="1"/>
+      <sheetData sheetId="375" refreshError="1"/>
+      <sheetData sheetId="376" refreshError="1"/>
+      <sheetData sheetId="377" refreshError="1"/>
+      <sheetData sheetId="378" refreshError="1"/>
+      <sheetData sheetId="379" refreshError="1"/>
+      <sheetData sheetId="380" refreshError="1"/>
+      <sheetData sheetId="381" refreshError="1"/>
+      <sheetData sheetId="382" refreshError="1"/>
+      <sheetData sheetId="383"/>
+      <sheetData sheetId="384" refreshError="1"/>
+      <sheetData sheetId="385" refreshError="1"/>
+      <sheetData sheetId="386" refreshError="1"/>
+      <sheetData sheetId="387"/>
+      <sheetData sheetId="388"/>
+      <sheetData sheetId="389" refreshError="1"/>
+      <sheetData sheetId="390" refreshError="1"/>
+      <sheetData sheetId="391" refreshError="1"/>
+      <sheetData sheetId="392" refreshError="1"/>
+      <sheetData sheetId="393" refreshError="1"/>
+      <sheetData sheetId="394" refreshError="1"/>
+      <sheetData sheetId="395" refreshError="1"/>
+      <sheetData sheetId="396" refreshError="1"/>
+      <sheetData sheetId="397" refreshError="1"/>
+      <sheetData sheetId="398" refreshError="1"/>
+      <sheetData sheetId="399" refreshError="1"/>
+      <sheetData sheetId="400" refreshError="1"/>
+      <sheetData sheetId="401" refreshError="1"/>
+      <sheetData sheetId="402" refreshError="1"/>
+      <sheetData sheetId="403" refreshError="1"/>
+      <sheetData sheetId="404" refreshError="1"/>
+      <sheetData sheetId="405" refreshError="1"/>
+      <sheetData sheetId="406" refreshError="1"/>
+      <sheetData sheetId="407" refreshError="1"/>
+      <sheetData sheetId="408" refreshError="1"/>
+      <sheetData sheetId="409" refreshError="1"/>
+      <sheetData sheetId="410" refreshError="1"/>
+      <sheetData sheetId="411" refreshError="1"/>
+      <sheetData sheetId="412" refreshError="1"/>
+      <sheetData sheetId="413" refreshError="1"/>
+      <sheetData sheetId="414" refreshError="1"/>
+      <sheetData sheetId="415" refreshError="1"/>
+      <sheetData sheetId="416" refreshError="1"/>
+      <sheetData sheetId="417" refreshError="1"/>
+      <sheetData sheetId="418" refreshError="1"/>
+      <sheetData sheetId="419" refreshError="1"/>
+      <sheetData sheetId="420" refreshError="1"/>
+      <sheetData sheetId="421" refreshError="1"/>
+      <sheetData sheetId="422" refreshError="1"/>
+      <sheetData sheetId="423" refreshError="1"/>
+      <sheetData sheetId="424" refreshError="1"/>
+      <sheetData sheetId="425" refreshError="1"/>
+      <sheetData sheetId="426" refreshError="1"/>
+      <sheetData sheetId="427" refreshError="1"/>
+      <sheetData sheetId="428" refreshError="1"/>
+      <sheetData sheetId="429" refreshError="1"/>
+      <sheetData sheetId="430" refreshError="1"/>
+      <sheetData sheetId="431" refreshError="1"/>
+      <sheetData sheetId="432" refreshError="1"/>
+      <sheetData sheetId="433" refreshError="1"/>
+      <sheetData sheetId="434" refreshError="1"/>
+      <sheetData sheetId="435" refreshError="1"/>
+      <sheetData sheetId="436" refreshError="1"/>
+      <sheetData sheetId="437" refreshError="1"/>
+      <sheetData sheetId="438" refreshError="1"/>
+      <sheetData sheetId="439" refreshError="1"/>
+      <sheetData sheetId="440" refreshError="1"/>
+      <sheetData sheetId="441" refreshError="1"/>
+      <sheetData sheetId="442" refreshError="1"/>
+      <sheetData sheetId="443" refreshError="1"/>
+      <sheetData sheetId="444" refreshError="1"/>
+      <sheetData sheetId="445" refreshError="1"/>
+      <sheetData sheetId="446" refreshError="1"/>
+      <sheetData sheetId="447" refreshError="1"/>
+      <sheetData sheetId="448" refreshError="1"/>
+      <sheetData sheetId="449" refreshError="1"/>
+      <sheetData sheetId="450" refreshError="1"/>
+      <sheetData sheetId="451" refreshError="1"/>
+      <sheetData sheetId="452" refreshError="1"/>
+      <sheetData sheetId="453" refreshError="1"/>
+      <sheetData sheetId="454" refreshError="1"/>
+      <sheetData sheetId="455" refreshError="1"/>
+      <sheetData sheetId="456" refreshError="1"/>
+      <sheetData sheetId="457" refreshError="1"/>
+      <sheetData sheetId="458" refreshError="1"/>
+      <sheetData sheetId="459" refreshError="1"/>
+      <sheetData sheetId="460"/>
+      <sheetData sheetId="461" refreshError="1"/>
+      <sheetData sheetId="462" refreshError="1"/>
+      <sheetData sheetId="463" refreshError="1"/>
+      <sheetData sheetId="464" refreshError="1"/>
+      <sheetData sheetId="465" refreshError="1"/>
+      <sheetData sheetId="466" refreshError="1"/>
+      <sheetData sheetId="467" refreshError="1"/>
+      <sheetData sheetId="468" refreshError="1"/>
+      <sheetData sheetId="469" refreshError="1"/>
+      <sheetData sheetId="470" refreshError="1"/>
+      <sheetData sheetId="471" refreshError="1"/>
+      <sheetData sheetId="472" refreshError="1"/>
+      <sheetData sheetId="473" refreshError="1"/>
+      <sheetData sheetId="474" refreshError="1"/>
+      <sheetData sheetId="475" refreshError="1"/>
+      <sheetData sheetId="476" refreshError="1"/>
+      <sheetData sheetId="477" refreshError="1"/>
+      <sheetData sheetId="478" refreshError="1"/>
+      <sheetData sheetId="479" refreshError="1"/>
+      <sheetData sheetId="480" refreshError="1"/>
+      <sheetData sheetId="481" refreshError="1"/>
+      <sheetData sheetId="482" refreshError="1"/>
+      <sheetData sheetId="483" refreshError="1"/>
+      <sheetData sheetId="484" refreshError="1"/>
+      <sheetData sheetId="485" refreshError="1"/>
+      <sheetData sheetId="486" refreshError="1"/>
+      <sheetData sheetId="487" refreshError="1"/>
+      <sheetData sheetId="488" refreshError="1"/>
+      <sheetData sheetId="489" refreshError="1"/>
+      <sheetData sheetId="490" refreshError="1"/>
+      <sheetData sheetId="491" refreshError="1"/>
+      <sheetData sheetId="492" refreshError="1"/>
+      <sheetData sheetId="493" refreshError="1"/>
+      <sheetData sheetId="494" refreshError="1"/>
+      <sheetData sheetId="495" refreshError="1"/>
+      <sheetData sheetId="496" refreshError="1"/>
+      <sheetData sheetId="497" refreshError="1"/>
+      <sheetData sheetId="498" refreshError="1"/>
+      <sheetData sheetId="499" refreshError="1"/>
+      <sheetData sheetId="500" refreshError="1"/>
+      <sheetData sheetId="501" refreshError="1"/>
+      <sheetData sheetId="502" refreshError="1"/>
+      <sheetData sheetId="503" refreshError="1"/>
+      <sheetData sheetId="504" refreshError="1"/>
+      <sheetData sheetId="505" refreshError="1"/>
+      <sheetData sheetId="506" refreshError="1"/>
+      <sheetData sheetId="507" refreshError="1"/>
+      <sheetData sheetId="508" refreshError="1"/>
+      <sheetData sheetId="509" refreshError="1"/>
+      <sheetData sheetId="510" refreshError="1"/>
+      <sheetData sheetId="511" refreshError="1"/>
+      <sheetData sheetId="512" refreshError="1"/>
+      <sheetData sheetId="513" refreshError="1"/>
+      <sheetData sheetId="514" refreshError="1"/>
+      <sheetData sheetId="515" refreshError="1"/>
+      <sheetData sheetId="516" refreshError="1"/>
+      <sheetData sheetId="517" refreshError="1"/>
+      <sheetData sheetId="518" refreshError="1"/>
+      <sheetData sheetId="519" refreshError="1"/>
+      <sheetData sheetId="520" refreshError="1"/>
+      <sheetData sheetId="521" refreshError="1"/>
+      <sheetData sheetId="522" refreshError="1"/>
+      <sheetData sheetId="523" refreshError="1"/>
+      <sheetData sheetId="524" refreshError="1"/>
+      <sheetData sheetId="525" refreshError="1"/>
+      <sheetData sheetId="526" refreshError="1"/>
+      <sheetData sheetId="527" refreshError="1"/>
+      <sheetData sheetId="528" refreshError="1"/>
+      <sheetData sheetId="529" refreshError="1"/>
+      <sheetData sheetId="530" refreshError="1"/>
+      <sheetData sheetId="531" refreshError="1"/>
+      <sheetData sheetId="532" refreshError="1"/>
+      <sheetData sheetId="533" refreshError="1"/>
+      <sheetData sheetId="534" refreshError="1"/>
+      <sheetData sheetId="535" refreshError="1"/>
+      <sheetData sheetId="536" refreshError="1"/>
+      <sheetData sheetId="537" refreshError="1"/>
+      <sheetData sheetId="538"/>
+      <sheetData sheetId="539"/>
+      <sheetData sheetId="540" refreshError="1"/>
+      <sheetData sheetId="541" refreshError="1"/>
+      <sheetData sheetId="542"/>
+      <sheetData sheetId="543"/>
+      <sheetData sheetId="544"/>
+      <sheetData sheetId="545"/>
+      <sheetData sheetId="546"/>
+      <sheetData sheetId="547"/>
+      <sheetData sheetId="548" refreshError="1"/>
+      <sheetData sheetId="549" refreshError="1"/>
+      <sheetData sheetId="550" refreshError="1"/>
+      <sheetData sheetId="551" refreshError="1"/>
+      <sheetData sheetId="552" refreshError="1"/>
+      <sheetData sheetId="553" refreshError="1"/>
+      <sheetData sheetId="554" refreshError="1"/>
+      <sheetData sheetId="555" refreshError="1"/>
+      <sheetData sheetId="556" refreshError="1"/>
+      <sheetData sheetId="557" refreshError="1"/>
+      <sheetData sheetId="558" refreshError="1"/>
+      <sheetData sheetId="559" refreshError="1"/>
+      <sheetData sheetId="560" refreshError="1"/>
+      <sheetData sheetId="561" refreshError="1"/>
+      <sheetData sheetId="562" refreshError="1"/>
+      <sheetData sheetId="563" refreshError="1"/>
+      <sheetData sheetId="564"/>
+      <sheetData sheetId="565" refreshError="1"/>
+      <sheetData sheetId="566" refreshError="1"/>
+      <sheetData sheetId="567" refreshError="1"/>
+      <sheetData sheetId="568" refreshError="1"/>
+      <sheetData sheetId="569" refreshError="1"/>
+      <sheetData sheetId="570" refreshError="1"/>
+      <sheetData sheetId="571" refreshError="1"/>
+      <sheetData sheetId="572" refreshError="1"/>
+      <sheetData sheetId="573" refreshError="1"/>
+      <sheetData sheetId="574" refreshError="1"/>
+      <sheetData sheetId="575" refreshError="1"/>
+      <sheetData sheetId="576"/>
+      <sheetData sheetId="577" refreshError="1"/>
+      <sheetData sheetId="578" refreshError="1"/>
+      <sheetData sheetId="579" refreshError="1"/>
+      <sheetData sheetId="580" refreshError="1"/>
+      <sheetData sheetId="581" refreshError="1"/>
+      <sheetData sheetId="582" refreshError="1"/>
+      <sheetData sheetId="583"/>
+      <sheetData sheetId="584"/>
+      <sheetData sheetId="585" refreshError="1"/>
+      <sheetData sheetId="586"/>
+      <sheetData sheetId="587" refreshError="1"/>
+      <sheetData sheetId="588" refreshError="1"/>
+      <sheetData sheetId="589" refreshError="1"/>
+      <sheetData sheetId="590" refreshError="1"/>
+      <sheetData sheetId="591" refreshError="1"/>
+      <sheetData sheetId="592" refreshError="1"/>
+      <sheetData sheetId="593" refreshError="1"/>
+      <sheetData sheetId="594" refreshError="1"/>
+      <sheetData sheetId="595" refreshError="1"/>
+      <sheetData sheetId="596" refreshError="1"/>
+      <sheetData sheetId="597"/>
+      <sheetData sheetId="598"/>
+      <sheetData sheetId="599" refreshError="1"/>
+      <sheetData sheetId="600" refreshError="1"/>
+      <sheetData sheetId="601" refreshError="1"/>
+      <sheetData sheetId="602"/>
+      <sheetData sheetId="603"/>
+      <sheetData sheetId="604"/>
+      <sheetData sheetId="605" refreshError="1"/>
+      <sheetData sheetId="606" refreshError="1"/>
+      <sheetData sheetId="607" refreshError="1"/>
+      <sheetData sheetId="608" refreshError="1"/>
+      <sheetData sheetId="609" refreshError="1"/>
+      <sheetData sheetId="610" refreshError="1"/>
+      <sheetData sheetId="611" refreshError="1"/>
+      <sheetData sheetId="612" refreshError="1"/>
+      <sheetData sheetId="613" refreshError="1"/>
+      <sheetData sheetId="614" refreshError="1"/>
+      <sheetData sheetId="615"/>
+      <sheetData sheetId="616"/>
+      <sheetData sheetId="617"/>
+      <sheetData sheetId="618"/>
+      <sheetData sheetId="619"/>
+      <sheetData sheetId="620"/>
+      <sheetData sheetId="621"/>
+      <sheetData sheetId="622"/>
+      <sheetData sheetId="623" refreshError="1"/>
+      <sheetData sheetId="624" refreshError="1"/>
+      <sheetData sheetId="625"/>
+      <sheetData sheetId="626"/>
+      <sheetData sheetId="627"/>
+      <sheetData sheetId="628" refreshError="1"/>
+      <sheetData sheetId="629"/>
+      <sheetData sheetId="630" refreshError="1"/>
+      <sheetData sheetId="631" refreshError="1"/>
+      <sheetData sheetId="632" refreshError="1"/>
+      <sheetData sheetId="633" refreshError="1"/>
+      <sheetData sheetId="634" refreshError="1"/>
+      <sheetData sheetId="635" refreshError="1"/>
+      <sheetData sheetId="636" refreshError="1"/>
+      <sheetData sheetId="637" refreshError="1"/>
+      <sheetData sheetId="638" refreshError="1"/>
+      <sheetData sheetId="639" refreshError="1"/>
+      <sheetData sheetId="640" refreshError="1"/>
+      <sheetData sheetId="641" refreshError="1"/>
+      <sheetData sheetId="642" refreshError="1"/>
+      <sheetData sheetId="643" refreshError="1"/>
+      <sheetData sheetId="644" refreshError="1"/>
+      <sheetData sheetId="645" refreshError="1"/>
+      <sheetData sheetId="646" refreshError="1"/>
+      <sheetData sheetId="647" refreshError="1"/>
+      <sheetData sheetId="648" refreshError="1"/>
+      <sheetData sheetId="649" refreshError="1"/>
+      <sheetData sheetId="650" refreshError="1"/>
+      <sheetData sheetId="651" refreshError="1"/>
+      <sheetData sheetId="652" refreshError="1"/>
+      <sheetData sheetId="653" refreshError="1"/>
+      <sheetData sheetId="654" refreshError="1"/>
+      <sheetData sheetId="655" refreshError="1"/>
+      <sheetData sheetId="656" refreshError="1"/>
+      <sheetData sheetId="657" refreshError="1"/>
+      <sheetData sheetId="658" refreshError="1"/>
+      <sheetData sheetId="659" refreshError="1"/>
+      <sheetData sheetId="660" refreshError="1"/>
+      <sheetData sheetId="661" refreshError="1"/>
+      <sheetData sheetId="662" refreshError="1"/>
+      <sheetData sheetId="663" refreshError="1"/>
+      <sheetData sheetId="664" refreshError="1"/>
+      <sheetData sheetId="665" refreshError="1"/>
+      <sheetData sheetId="666" refreshError="1"/>
+      <sheetData sheetId="667" refreshError="1"/>
+      <sheetData sheetId="668" refreshError="1"/>
+      <sheetData sheetId="669" refreshError="1"/>
+      <sheetData sheetId="670" refreshError="1"/>
+      <sheetData sheetId="671" refreshError="1"/>
+      <sheetData sheetId="672" refreshError="1"/>
+      <sheetData sheetId="673" refreshError="1"/>
+      <sheetData sheetId="674" refreshError="1"/>
+      <sheetData sheetId="675" refreshError="1"/>
+      <sheetData sheetId="676" refreshError="1"/>
+      <sheetData sheetId="677" refreshError="1"/>
+      <sheetData sheetId="678" refreshError="1"/>
+      <sheetData sheetId="679" refreshError="1"/>
+      <sheetData sheetId="680" refreshError="1"/>
+      <sheetData sheetId="681" refreshError="1"/>
+      <sheetData sheetId="682" refreshError="1"/>
+      <sheetData sheetId="683" refreshError="1"/>
+      <sheetData sheetId="684" refreshError="1"/>
+      <sheetData sheetId="685" refreshError="1"/>
+      <sheetData sheetId="686" refreshError="1"/>
+      <sheetData sheetId="687" refreshError="1"/>
+      <sheetData sheetId="688" refreshError="1"/>
+      <sheetData sheetId="689" refreshError="1"/>
+      <sheetData sheetId="690" refreshError="1"/>
+      <sheetData sheetId="691" refreshError="1"/>
+      <sheetData sheetId="692" refreshError="1"/>
+      <sheetData sheetId="693" refreshError="1"/>
+      <sheetData sheetId="694" refreshError="1"/>
+      <sheetData sheetId="695" refreshError="1"/>
+      <sheetData sheetId="696" refreshError="1"/>
+      <sheetData sheetId="697" refreshError="1"/>
+      <sheetData sheetId="698" refreshError="1"/>
+      <sheetData sheetId="699"/>
+      <sheetData sheetId="700" refreshError="1"/>
+      <sheetData sheetId="701" refreshError="1"/>
+      <sheetData sheetId="702" refreshError="1"/>
+      <sheetData sheetId="703" refreshError="1"/>
+      <sheetData sheetId="704" refreshError="1"/>
+      <sheetData sheetId="705" refreshError="1"/>
+      <sheetData sheetId="706" refreshError="1"/>
+      <sheetData sheetId="707" refreshError="1"/>
+      <sheetData sheetId="708" refreshError="1"/>
+      <sheetData sheetId="709" refreshError="1"/>
+      <sheetData sheetId="710" refreshError="1"/>
+      <sheetData sheetId="711" refreshError="1"/>
+      <sheetData sheetId="712" refreshError="1"/>
+      <sheetData sheetId="713" refreshError="1"/>
+      <sheetData sheetId="714" refreshError="1"/>
+      <sheetData sheetId="715" refreshError="1"/>
+      <sheetData sheetId="716" refreshError="1"/>
+      <sheetData sheetId="717" refreshError="1"/>
+      <sheetData sheetId="718" refreshError="1"/>
+      <sheetData sheetId="719" refreshError="1"/>
+      <sheetData sheetId="720" refreshError="1"/>
+      <sheetData sheetId="721" refreshError="1"/>
+      <sheetData sheetId="722" refreshError="1"/>
+      <sheetData sheetId="723" refreshError="1"/>
+      <sheetData sheetId="724" refreshError="1"/>
+      <sheetData sheetId="725" refreshError="1"/>
+      <sheetData sheetId="726" refreshError="1"/>
+      <sheetData sheetId="727" refreshError="1"/>
+      <sheetData sheetId="728" refreshError="1"/>
+      <sheetData sheetId="729" refreshError="1"/>
+      <sheetData sheetId="730" refreshError="1"/>
+      <sheetData sheetId="731" refreshError="1"/>
+      <sheetData sheetId="732" refreshError="1"/>
+      <sheetData sheetId="733" refreshError="1"/>
+      <sheetData sheetId="734" refreshError="1"/>
+      <sheetData sheetId="735" refreshError="1"/>
+      <sheetData sheetId="736" refreshError="1"/>
+      <sheetData sheetId="737" refreshError="1"/>
+      <sheetData sheetId="738" refreshError="1"/>
+      <sheetData sheetId="739" refreshError="1"/>
+      <sheetData sheetId="740" refreshError="1"/>
+      <sheetData sheetId="741" refreshError="1"/>
+      <sheetData sheetId="742" refreshError="1"/>
+      <sheetData sheetId="743" refreshError="1"/>
+      <sheetData sheetId="744" refreshError="1"/>
+      <sheetData sheetId="745"/>
+      <sheetData sheetId="746" refreshError="1"/>
+      <sheetData sheetId="747" refreshError="1"/>
+      <sheetData sheetId="748" refreshError="1"/>
+      <sheetData sheetId="749" refreshError="1"/>
+      <sheetData sheetId="750" refreshError="1"/>
+      <sheetData sheetId="751" refreshError="1"/>
+      <sheetData sheetId="752" refreshError="1"/>
+      <sheetData sheetId="753" refreshError="1"/>
+      <sheetData sheetId="754" refreshError="1"/>
+      <sheetData sheetId="755" refreshError="1"/>
+      <sheetData sheetId="756" refreshError="1"/>
+      <sheetData sheetId="757" refreshError="1"/>
+      <sheetData sheetId="758" refreshError="1"/>
+      <sheetData sheetId="759" refreshError="1"/>
+      <sheetData sheetId="760" refreshError="1"/>
+      <sheetData sheetId="761" refreshError="1"/>
+      <sheetData sheetId="762" refreshError="1"/>
+      <sheetData sheetId="763" refreshError="1"/>
+      <sheetData sheetId="764" refreshError="1"/>
+      <sheetData sheetId="765" refreshError="1"/>
+      <sheetData sheetId="766" refreshError="1"/>
+      <sheetData sheetId="767" refreshError="1"/>
+      <sheetData sheetId="768" refreshError="1"/>
+      <sheetData sheetId="769" refreshError="1"/>
+      <sheetData sheetId="770" refreshError="1"/>
+      <sheetData sheetId="771" refreshError="1"/>
+      <sheetData sheetId="772" refreshError="1"/>
+      <sheetData sheetId="773" refreshError="1"/>
+      <sheetData sheetId="774" refreshError="1"/>
+      <sheetData sheetId="775" refreshError="1"/>
+      <sheetData sheetId="776" refreshError="1"/>
+      <sheetData sheetId="777" refreshError="1"/>
+      <sheetData sheetId="778" refreshError="1"/>
+      <sheetData sheetId="779" refreshError="1"/>
+      <sheetData sheetId="780" refreshError="1"/>
+      <sheetData sheetId="781" refreshError="1"/>
+      <sheetData sheetId="782" refreshError="1"/>
+      <sheetData sheetId="783" refreshError="1"/>
+      <sheetData sheetId="784" refreshError="1"/>
+      <sheetData sheetId="785"/>
+      <sheetData sheetId="786" refreshError="1"/>
+      <sheetData sheetId="787" refreshError="1"/>
+      <sheetData sheetId="788" refreshError="1"/>
+      <sheetData sheetId="789"/>
+      <sheetData sheetId="790"/>
+      <sheetData sheetId="791"/>
+      <sheetData sheetId="792"/>
+      <sheetData sheetId="793" refreshError="1"/>
+      <sheetData sheetId="794" refreshError="1"/>
+      <sheetData sheetId="795" refreshError="1"/>
+      <sheetData sheetId="796" refreshError="1"/>
+      <sheetData sheetId="797" refreshError="1"/>
+      <sheetData sheetId="798" refreshError="1"/>
+      <sheetData sheetId="799" refreshError="1"/>
+      <sheetData sheetId="800" refreshError="1"/>
+      <sheetData sheetId="801" refreshError="1"/>
+      <sheetData sheetId="802" refreshError="1"/>
+      <sheetData sheetId="803" refreshError="1"/>
+      <sheetData sheetId="804"/>
+      <sheetData sheetId="805" refreshError="1"/>
+      <sheetData sheetId="806" refreshError="1"/>
+      <sheetData sheetId="807" refreshError="1"/>
+      <sheetData sheetId="808" refreshError="1"/>
+      <sheetData sheetId="809" refreshError="1"/>
+      <sheetData sheetId="810" refreshError="1"/>
+      <sheetData sheetId="811" refreshError="1"/>
+      <sheetData sheetId="812" refreshError="1"/>
+      <sheetData sheetId="813" refreshError="1"/>
+      <sheetData sheetId="814" refreshError="1"/>
+      <sheetData sheetId="815" refreshError="1"/>
+      <sheetData sheetId="816"/>
+      <sheetData sheetId="817"/>
+      <sheetData sheetId="818"/>
+      <sheetData sheetId="819"/>
+      <sheetData sheetId="820"/>
+      <sheetData sheetId="821"/>
+      <sheetData sheetId="822" refreshError="1"/>
+      <sheetData sheetId="823" refreshError="1"/>
+      <sheetData sheetId="824" refreshError="1"/>
+      <sheetData sheetId="825" refreshError="1"/>
+      <sheetData sheetId="826" refreshError="1"/>
+      <sheetData sheetId="827" refreshError="1"/>
+      <sheetData sheetId="828" refreshError="1"/>
+      <sheetData sheetId="829" refreshError="1"/>
+      <sheetData sheetId="830" refreshError="1"/>
+      <sheetData sheetId="831" refreshError="1"/>
+      <sheetData sheetId="832" refreshError="1"/>
+      <sheetData sheetId="833" refreshError="1"/>
+      <sheetData sheetId="834" refreshError="1"/>
+      <sheetData sheetId="835" refreshError="1"/>
+      <sheetData sheetId="836" refreshError="1"/>
+      <sheetData sheetId="837" refreshError="1"/>
+      <sheetData sheetId="838" refreshError="1"/>
+      <sheetData sheetId="839" refreshError="1"/>
+      <sheetData sheetId="840" refreshError="1"/>
+      <sheetData sheetId="841" refreshError="1"/>
+      <sheetData sheetId="842" refreshError="1"/>
+      <sheetData sheetId="843" refreshError="1"/>
+      <sheetData sheetId="844" refreshError="1"/>
+      <sheetData sheetId="845" refreshError="1"/>
+      <sheetData sheetId="846" refreshError="1"/>
+      <sheetData sheetId="847" refreshError="1"/>
+      <sheetData sheetId="848" refreshError="1"/>
+      <sheetData sheetId="849" refreshError="1"/>
+      <sheetData sheetId="850" refreshError="1"/>
+      <sheetData sheetId="851" refreshError="1"/>
+      <sheetData sheetId="852" refreshError="1"/>
+      <sheetData sheetId="853" refreshError="1"/>
+      <sheetData sheetId="854" refreshError="1"/>
+      <sheetData sheetId="855" refreshError="1"/>
+      <sheetData sheetId="856" refreshError="1"/>
+      <sheetData sheetId="857" refreshError="1"/>
+      <sheetData sheetId="858" refreshError="1"/>
+      <sheetData sheetId="859" refreshError="1"/>
+      <sheetData sheetId="860" refreshError="1"/>
+      <sheetData sheetId="861" refreshError="1"/>
+      <sheetData sheetId="862" refreshError="1"/>
+      <sheetData sheetId="863" refreshError="1"/>
+      <sheetData sheetId="864" refreshError="1"/>
+      <sheetData sheetId="865" refreshError="1"/>
+      <sheetData sheetId="866" refreshError="1"/>
+      <sheetData sheetId="867" refreshError="1"/>
+      <sheetData sheetId="868" refreshError="1"/>
+      <sheetData sheetId="869" refreshError="1"/>
+      <sheetData sheetId="870" refreshError="1"/>
+      <sheetData sheetId="871" refreshError="1"/>
+      <sheetData sheetId="872" refreshError="1"/>
+      <sheetData sheetId="873" refreshError="1"/>
+      <sheetData sheetId="874" refreshError="1"/>
+      <sheetData sheetId="875" refreshError="1"/>
+      <sheetData sheetId="876" refreshError="1"/>
+      <sheetData sheetId="877" refreshError="1"/>
+      <sheetData sheetId="878" refreshError="1"/>
+      <sheetData sheetId="879" refreshError="1"/>
+      <sheetData sheetId="880"/>
+      <sheetData sheetId="881" refreshError="1"/>
+      <sheetData sheetId="882" refreshError="1"/>
+      <sheetData sheetId="883" refreshError="1"/>
+      <sheetData sheetId="884" refreshError="1"/>
+      <sheetData sheetId="885" refreshError="1"/>
+      <sheetData sheetId="886" refreshError="1"/>
+      <sheetData sheetId="887" refreshError="1"/>
+      <sheetData sheetId="888" refreshError="1"/>
+      <sheetData sheetId="889" refreshError="1"/>
+      <sheetData sheetId="890" refreshError="1"/>
+      <sheetData sheetId="891" refreshError="1"/>
+      <sheetData sheetId="892" refreshError="1"/>
+      <sheetData sheetId="893" refreshError="1"/>
+      <sheetData sheetId="894" refreshError="1"/>
+      <sheetData sheetId="895" refreshError="1"/>
+      <sheetData sheetId="896" refreshError="1"/>
+      <sheetData sheetId="897" refreshError="1"/>
+      <sheetData sheetId="898" refreshError="1"/>
+      <sheetData sheetId="899" refreshError="1"/>
+      <sheetData sheetId="900" refreshError="1"/>
+      <sheetData sheetId="901" refreshError="1"/>
+      <sheetData sheetId="902" refreshError="1"/>
+      <sheetData sheetId="903" refreshError="1"/>
+      <sheetData sheetId="904" refreshError="1"/>
+      <sheetData sheetId="905" refreshError="1"/>
+      <sheetData sheetId="906"/>
+      <sheetData sheetId="907" refreshError="1"/>
+      <sheetData sheetId="908" refreshError="1"/>
+      <sheetData sheetId="909" refreshError="1"/>
+      <sheetData sheetId="910" refreshError="1"/>
+      <sheetData sheetId="911"/>
+      <sheetData sheetId="912" refreshError="1"/>
+      <sheetData sheetId="913" refreshError="1"/>
+      <sheetData sheetId="914" refreshError="1"/>
+      <sheetData sheetId="915" refreshError="1"/>
+      <sheetData sheetId="916" refreshError="1"/>
+      <sheetData sheetId="917" refreshError="1"/>
+      <sheetData sheetId="918" refreshError="1"/>
+      <sheetData sheetId="919" refreshError="1"/>
+      <sheetData sheetId="920" refreshError="1"/>
+      <sheetData sheetId="921" refreshError="1"/>
+      <sheetData sheetId="922" refreshError="1"/>
+      <sheetData sheetId="923" refreshError="1"/>
+      <sheetData sheetId="924" refreshError="1"/>
+      <sheetData sheetId="925" refreshError="1"/>
+      <sheetData sheetId="926" refreshError="1"/>
+      <sheetData sheetId="927" refreshError="1"/>
+      <sheetData sheetId="928" refreshError="1"/>
+      <sheetData sheetId="929" refreshError="1"/>
+      <sheetData sheetId="930" refreshError="1"/>
+      <sheetData sheetId="931" refreshError="1"/>
+      <sheetData sheetId="932" refreshError="1"/>
+      <sheetData sheetId="933" refreshError="1"/>
+      <sheetData sheetId="934" refreshError="1"/>
+      <sheetData sheetId="935" refreshError="1"/>
+      <sheetData sheetId="936" refreshError="1"/>
+      <sheetData sheetId="937" refreshError="1"/>
+      <sheetData sheetId="938" refreshError="1"/>
+      <sheetData sheetId="939" refreshError="1"/>
+      <sheetData sheetId="940" refreshError="1"/>
+      <sheetData sheetId="941" refreshError="1"/>
+      <sheetData sheetId="942" refreshError="1"/>
+      <sheetData sheetId="943" refreshError="1"/>
+      <sheetData sheetId="944" refreshError="1"/>
+      <sheetData sheetId="945" refreshError="1"/>
+      <sheetData sheetId="946" refreshError="1"/>
+      <sheetData sheetId="947" refreshError="1"/>
+      <sheetData sheetId="948" refreshError="1"/>
+      <sheetData sheetId="949" refreshError="1"/>
+      <sheetData sheetId="950" refreshError="1"/>
+      <sheetData sheetId="951" refreshError="1"/>
+      <sheetData sheetId="952" refreshError="1"/>
+      <sheetData sheetId="953" refreshError="1"/>
+      <sheetData sheetId="954" refreshError="1"/>
+      <sheetData sheetId="955" refreshError="1"/>
+      <sheetData sheetId="956" refreshError="1"/>
+      <sheetData sheetId="957" refreshError="1"/>
+      <sheetData sheetId="958" refreshError="1"/>
+      <sheetData sheetId="959" refreshError="1"/>
+      <sheetData sheetId="960" refreshError="1"/>
+      <sheetData sheetId="961" refreshError="1"/>
+      <sheetData sheetId="962" refreshError="1"/>
+      <sheetData sheetId="963" refreshError="1"/>
+      <sheetData sheetId="964" refreshError="1"/>
+      <sheetData sheetId="965" refreshError="1"/>
+      <sheetData sheetId="966" refreshError="1"/>
+      <sheetData sheetId="967" refreshError="1"/>
+      <sheetData sheetId="968" refreshError="1"/>
+      <sheetData sheetId="969" refreshError="1"/>
+      <sheetData sheetId="970" refreshError="1"/>
+      <sheetData sheetId="971" refreshError="1"/>
+      <sheetData sheetId="972" refreshError="1"/>
+      <sheetData sheetId="973" refreshError="1"/>
+      <sheetData sheetId="974" refreshError="1"/>
+      <sheetData sheetId="975" refreshError="1"/>
+      <sheetData sheetId="976" refreshError="1"/>
+      <sheetData sheetId="977"/>
+      <sheetData sheetId="978" refreshError="1"/>
+      <sheetData sheetId="979" refreshError="1"/>
+      <sheetData sheetId="980"/>
+      <sheetData sheetId="981" refreshError="1"/>
+      <sheetData sheetId="982" refreshError="1"/>
+      <sheetData sheetId="983" refreshError="1"/>
+      <sheetData sheetId="984" refreshError="1"/>
+      <sheetData sheetId="985" refreshError="1"/>
+      <sheetData sheetId="986" refreshError="1"/>
+      <sheetData sheetId="987" refreshError="1"/>
+      <sheetData sheetId="988" refreshError="1"/>
+      <sheetData sheetId="989" refreshError="1"/>
+      <sheetData sheetId="990" refreshError="1"/>
+      <sheetData sheetId="991" refreshError="1"/>
+      <sheetData sheetId="992" refreshError="1"/>
+      <sheetData sheetId="993" refreshError="1"/>
+      <sheetData sheetId="994"/>
+      <sheetData sheetId="995" refreshError="1"/>
+      <sheetData sheetId="996" refreshError="1"/>
+      <sheetData sheetId="997" refreshError="1"/>
+      <sheetData sheetId="998" refreshError="1"/>
+      <sheetData sheetId="999"/>
+      <sheetData sheetId="1000"/>
+      <sheetData sheetId="1001" refreshError="1"/>
+      <sheetData sheetId="1002"/>
+      <sheetData sheetId="1003" refreshError="1"/>
+      <sheetData sheetId="1004" refreshError="1"/>
+      <sheetData sheetId="1005" refreshError="1"/>
+      <sheetData sheetId="1006" refreshError="1"/>
+      <sheetData sheetId="1007" refreshError="1"/>
+      <sheetData sheetId="1008" refreshError="1"/>
+      <sheetData sheetId="1009" refreshError="1"/>
+      <sheetData sheetId="1010" refreshError="1"/>
+      <sheetData sheetId="1011" refreshError="1"/>
+      <sheetData sheetId="1012" refreshError="1"/>
+      <sheetData sheetId="1013" refreshError="1"/>
+      <sheetData sheetId="1014" refreshError="1"/>
+      <sheetData sheetId="1015" refreshError="1"/>
+      <sheetData sheetId="1016"/>
+      <sheetData sheetId="1017"/>
+      <sheetData sheetId="1018" refreshError="1"/>
+      <sheetData sheetId="1019" refreshError="1"/>
+      <sheetData sheetId="1020" refreshError="1"/>
+      <sheetData sheetId="1021"/>
+      <sheetData sheetId="1022"/>
+      <sheetData sheetId="1023" refreshError="1"/>
+      <sheetData sheetId="1024" refreshError="1"/>
+      <sheetData sheetId="1025" refreshError="1"/>
+      <sheetData sheetId="1026"/>
+      <sheetData sheetId="1027" refreshError="1"/>
+      <sheetData sheetId="1028" refreshError="1"/>
+      <sheetData sheetId="1029" refreshError="1"/>
+      <sheetData sheetId="1030"/>
+      <sheetData sheetId="1031" refreshError="1"/>
+      <sheetData sheetId="1032" refreshError="1"/>
+      <sheetData sheetId="1033" refreshError="1"/>
+      <sheetData sheetId="1034" refreshError="1"/>
+      <sheetData sheetId="1035" refreshError="1"/>
+      <sheetData sheetId="1036" refreshError="1"/>
+      <sheetData sheetId="1037" refreshError="1"/>
+      <sheetData sheetId="1038" refreshError="1"/>
+      <sheetData sheetId="1039" refreshError="1"/>
+      <sheetData sheetId="1040" refreshError="1"/>
+      <sheetData sheetId="1041" refreshError="1"/>
+      <sheetData sheetId="1042" refreshError="1"/>
+      <sheetData sheetId="1043" refreshError="1"/>
+      <sheetData sheetId="1044" refreshError="1"/>
+      <sheetData sheetId="1045" refreshError="1"/>
+      <sheetData sheetId="1046" refreshError="1"/>
+      <sheetData sheetId="1047"/>
+      <sheetData sheetId="1048"/>
+      <sheetData sheetId="1049" refreshError="1"/>
+      <sheetData sheetId="1050" refreshError="1"/>
+      <sheetData sheetId="1051" refreshError="1"/>
+      <sheetData sheetId="1052" refreshError="1"/>
+      <sheetData sheetId="1053" refreshError="1"/>
+      <sheetData sheetId="1054" refreshError="1"/>
+      <sheetData sheetId="1055" refreshError="1"/>
+      <sheetData sheetId="1056"/>
+      <sheetData sheetId="1057" refreshError="1"/>
+      <sheetData sheetId="1058" refreshError="1"/>
+      <sheetData sheetId="1059" refreshError="1"/>
+      <sheetData sheetId="1060" refreshError="1"/>
+      <sheetData sheetId="1061" refreshError="1"/>
+      <sheetData sheetId="1062"/>
+      <sheetData sheetId="1063" refreshError="1"/>
+      <sheetData sheetId="1064" refreshError="1"/>
+      <sheetData sheetId="1065" refreshError="1"/>
+      <sheetData sheetId="1066" refreshError="1"/>
+      <sheetData sheetId="1067" refreshError="1"/>
+      <sheetData sheetId="1068" refreshError="1"/>
+      <sheetData sheetId="1069"/>
+      <sheetData sheetId="1070" refreshError="1"/>
+      <sheetData sheetId="1071"/>
+      <sheetData sheetId="1072"/>
+      <sheetData sheetId="1073" refreshError="1"/>
+      <sheetData sheetId="1074" refreshError="1"/>
+      <sheetData sheetId="1075" refreshError="1"/>
+      <sheetData sheetId="1076" refreshError="1"/>
+      <sheetData sheetId="1077" refreshError="1"/>
+      <sheetData sheetId="1078" refreshError="1"/>
+      <sheetData sheetId="1079" refreshError="1"/>
+      <sheetData sheetId="1080" refreshError="1"/>
+      <sheetData sheetId="1081" refreshError="1"/>
+      <sheetData sheetId="1082" refreshError="1"/>
+      <sheetData sheetId="1083" refreshError="1"/>
+      <sheetData sheetId="1084" refreshError="1"/>
+      <sheetData sheetId="1085" refreshError="1"/>
+      <sheetData sheetId="1086" refreshError="1"/>
+      <sheetData sheetId="1087" refreshError="1"/>
+      <sheetData sheetId="1088" refreshError="1"/>
+      <sheetData sheetId="1089" refreshError="1"/>
+      <sheetData sheetId="1090"/>
+      <sheetData sheetId="1091" refreshError="1"/>
+      <sheetData sheetId="1092" refreshError="1"/>
+      <sheetData sheetId="1093" refreshError="1"/>
+      <sheetData sheetId="1094" refreshError="1"/>
+      <sheetData sheetId="1095"/>
+      <sheetData sheetId="1096" refreshError="1"/>
+      <sheetData sheetId="1097" refreshError="1"/>
+      <sheetData sheetId="1098" refreshError="1"/>
+      <sheetData sheetId="1099" refreshError="1"/>
+      <sheetData sheetId="1100" refreshError="1"/>
+      <sheetData sheetId="1101" refreshError="1"/>
+      <sheetData sheetId="1102" refreshError="1"/>
+      <sheetData sheetId="1103" refreshError="1"/>
+      <sheetData sheetId="1104"/>
+      <sheetData sheetId="1105" refreshError="1"/>
+      <sheetData sheetId="1106" refreshError="1"/>
+      <sheetData sheetId="1107" refreshError="1"/>
+      <sheetData sheetId="1108" refreshError="1"/>
+      <sheetData sheetId="1109"/>
+      <sheetData sheetId="1110"/>
+      <sheetData sheetId="1111" refreshError="1"/>
+      <sheetData sheetId="1112" refreshError="1"/>
+      <sheetData sheetId="1113" refreshError="1"/>
+      <sheetData sheetId="1114" refreshError="1"/>
+      <sheetData sheetId="1115" refreshError="1"/>
+      <sheetData sheetId="1116" refreshError="1"/>
+      <sheetData sheetId="1117"/>
+      <sheetData sheetId="1118" refreshError="1"/>
+      <sheetData sheetId="1119" refreshError="1"/>
+      <sheetData sheetId="1120" refreshError="1"/>
+      <sheetData sheetId="1121" refreshError="1"/>
+      <sheetData sheetId="1122" refreshError="1"/>
+      <sheetData sheetId="1123" refreshError="1"/>
+      <sheetData sheetId="1124" refreshError="1"/>
+      <sheetData sheetId="1125" refreshError="1"/>
+      <sheetData sheetId="1126" refreshError="1"/>
+      <sheetData sheetId="1127" refreshError="1"/>
+      <sheetData sheetId="1128" refreshError="1"/>
+      <sheetData sheetId="1129" refreshError="1"/>
+      <sheetData sheetId="1130" refreshError="1"/>
+      <sheetData sheetId="1131" refreshError="1"/>
+      <sheetData sheetId="1132" refreshError="1"/>
+      <sheetData sheetId="1133" refreshError="1"/>
+      <sheetData sheetId="1134"/>
+      <sheetData sheetId="1135"/>
+      <sheetData sheetId="1136"/>
+      <sheetData sheetId="1137"/>
+      <sheetData sheetId="1138"/>
+      <sheetData sheetId="1139" refreshError="1"/>
+      <sheetData sheetId="1140" refreshError="1"/>
+      <sheetData sheetId="1141" refreshError="1"/>
+      <sheetData sheetId="1142" refreshError="1"/>
+      <sheetData sheetId="1143" refreshError="1"/>
+      <sheetData sheetId="1144" refreshError="1"/>
+      <sheetData sheetId="1145" refreshError="1"/>
+      <sheetData sheetId="1146" refreshError="1"/>
+      <sheetData sheetId="1147" refreshError="1"/>
+      <sheetData sheetId="1148" refreshError="1"/>
+      <sheetData sheetId="1149" refreshError="1"/>
+      <sheetData sheetId="1150" refreshError="1"/>
+      <sheetData sheetId="1151" refreshError="1"/>
+      <sheetData sheetId="1152" refreshError="1"/>
+      <sheetData sheetId="1153" refreshError="1"/>
+      <sheetData sheetId="1154" refreshError="1"/>
+      <sheetData sheetId="1155" refreshError="1"/>
+      <sheetData sheetId="1156" refreshError="1"/>
+      <sheetData sheetId="1157" refreshError="1"/>
+      <sheetData sheetId="1158"/>
+      <sheetData sheetId="1159"/>
+      <sheetData sheetId="1160" refreshError="1"/>
+      <sheetData sheetId="1161" refreshError="1"/>
+      <sheetData sheetId="1162" refreshError="1"/>
+      <sheetData sheetId="1163"/>
+      <sheetData sheetId="1164" refreshError="1"/>
+      <sheetData sheetId="1165" refreshError="1"/>
+      <sheetData sheetId="1166"/>
+      <sheetData sheetId="1167"/>
+      <sheetData sheetId="1168"/>
+      <sheetData sheetId="1169"/>
+      <sheetData sheetId="1170"/>
+      <sheetData sheetId="1171" refreshError="1"/>
+      <sheetData sheetId="1172" refreshError="1"/>
+      <sheetData sheetId="1173" refreshError="1"/>
+      <sheetData sheetId="1174" refreshError="1"/>
+      <sheetData sheetId="1175" refreshError="1"/>
+      <sheetData sheetId="1176" refreshError="1"/>
+      <sheetData sheetId="1177" refreshError="1"/>
+      <sheetData sheetId="1178" refreshError="1"/>
+      <sheetData sheetId="1179" refreshError="1"/>
+      <sheetData sheetId="1180" refreshError="1"/>
+      <sheetData sheetId="1181" refreshError="1"/>
+      <sheetData sheetId="1182" refreshError="1"/>
+      <sheetData sheetId="1183" refreshError="1"/>
+      <sheetData sheetId="1184" refreshError="1"/>
+      <sheetData sheetId="1185" refreshError="1"/>
+      <sheetData sheetId="1186" refreshError="1"/>
+      <sheetData sheetId="1187"/>
+      <sheetData sheetId="1188"/>
+      <sheetData sheetId="1189" refreshError="1"/>
+      <sheetData sheetId="1190" refreshError="1"/>
+      <sheetData sheetId="1191" refreshError="1"/>
+      <sheetData sheetId="1192" refreshError="1"/>
+      <sheetData sheetId="1193" refreshError="1"/>
+      <sheetData sheetId="1194" refreshError="1"/>
+      <sheetData sheetId="1195" refreshError="1"/>
+      <sheetData sheetId="1196" refreshError="1"/>
+      <sheetData sheetId="1197" refreshError="1"/>
+      <sheetData sheetId="1198" refreshError="1"/>
+      <sheetData sheetId="1199" refreshError="1"/>
+      <sheetData sheetId="1200" refreshError="1"/>
+      <sheetData sheetId="1201" refreshError="1"/>
+      <sheetData sheetId="1202" refreshError="1"/>
+      <sheetData sheetId="1203" refreshError="1"/>
+      <sheetData sheetId="1204" refreshError="1"/>
+      <sheetData sheetId="1205" refreshError="1"/>
+      <sheetData sheetId="1206" refreshError="1"/>
+      <sheetData sheetId="1207" refreshError="1"/>
+      <sheetData sheetId="1208" refreshError="1"/>
+      <sheetData sheetId="1209" refreshError="1"/>
+      <sheetData sheetId="1210" refreshError="1"/>
+      <sheetData sheetId="1211" refreshError="1"/>
+      <sheetData sheetId="1212" refreshError="1"/>
+      <sheetData sheetId="1213" refreshError="1"/>
+      <sheetData sheetId="1214" refreshError="1"/>
+      <sheetData sheetId="1215" refreshError="1"/>
+      <sheetData sheetId="1216" refreshError="1"/>
+      <sheetData sheetId="1217" refreshError="1"/>
+      <sheetData sheetId="1218" refreshError="1"/>
+      <sheetData sheetId="1219"/>
+      <sheetData sheetId="1220" refreshError="1"/>
+      <sheetData sheetId="1221" refreshError="1"/>
+      <sheetData sheetId="1222" refreshError="1"/>
+      <sheetData sheetId="1223" refreshError="1"/>
+      <sheetData sheetId="1224" refreshError="1"/>
+      <sheetData sheetId="1225"/>
+      <sheetData sheetId="1226" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1634,6 +3679,34 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="マスター"/>
+      <sheetName val="見積一覧（１案）"/>
+      <sheetName val="日報"/>
+      <sheetName val="スケジュール（ＰＣ版業務ＵＩ）"/>
+      <sheetName val="スケジュール（ＰＣ版ＵＩ）業務系"/>
+      <sheetName val="スケジュール（ＰＣ版共通ＵＩ）共通系"/>
+      <sheetName val="週間"/>
+      <sheetName val="月間"/>
+      <sheetName val="3ヶ月"/>
+      <sheetName val="半年"/>
+      <sheetName val="年間"/>
+      <sheetName val="3年間"/>
+      <sheetName val="半年(週区切)"/>
+      <sheetName val="年間(週区切)"/>
+      <sheetName val="分類"/>
+      <sheetName val="項目"/>
+      <sheetName val="工程"/>
+      <sheetName val="スタート"/>
+      <sheetName val="Network,User"/>
+      <sheetName val="要件確認書"/>
+      <sheetName val="単価"/>
+      <sheetName val="進捗管理表"/>
+      <sheetName val="JM资材入库情报"/>
+      <sheetName val="文字列"/>
+      <sheetName val="構成リスト"/>
+      <sheetName val="$work(rack)"/>
+      <sheetName val="PingList"/>
+      <sheetName val="PRIMERGY F250 BU RH XEON 2,4GH"/>
+      <sheetName val="テストデータの想定ケース_G版"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -1862,6 +3935,34 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3827,10 +5928,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:BN34"/>
+  <dimension ref="A1:BN35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3842,273 +5943,274 @@
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="28.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:66" ht="30.75" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+    </row>
+    <row r="2" spans="1:66" ht="28.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
     </row>
     <row r="3" spans="1:66" ht="12.9" customHeight="1">
       <c r="A3" s="4"/>
@@ -4121,13 +6223,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -4179,18 +6281,18 @@
       <c r="BN3" s="13"/>
     </row>
     <row r="4" spans="1:66" ht="12.9" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="12"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
@@ -4258,7 +6360,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="11"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
@@ -4394,12 +6496,12 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -4462,12 +6564,12 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -4938,12 +7040,12 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -5470,75 +7572,75 @@
       <c r="BM22" s="13"/>
       <c r="BN22" s="13"/>
     </row>
-    <row r="23" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
+    <row r="23" spans="1:66" ht="12.9" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
-      <c r="AN23" s="16"/>
-      <c r="AO23" s="16"/>
-      <c r="AP23" s="16"/>
-      <c r="AQ23" s="16"/>
-      <c r="AR23" s="16"/>
-      <c r="AS23" s="16"/>
-      <c r="AT23" s="16"/>
-      <c r="AU23" s="16"/>
-      <c r="AV23" s="16"/>
-      <c r="AW23" s="16"/>
-      <c r="AX23" s="16"/>
-      <c r="AY23" s="16"/>
-      <c r="AZ23" s="16"/>
-      <c r="BA23" s="16"/>
-      <c r="BB23" s="16"/>
-      <c r="BC23" s="16"/>
-      <c r="BD23" s="16"/>
-      <c r="BE23" s="16"/>
-      <c r="BF23" s="16"/>
-      <c r="BG23" s="16"/>
-      <c r="BH23" s="16"/>
-      <c r="BI23" s="16"/>
-      <c r="BJ23" s="16"/>
-      <c r="BK23" s="16"/>
-      <c r="BL23" s="16"/>
-      <c r="BM23" s="16"/>
-      <c r="BN23" s="16"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
     </row>
-    <row r="24" spans="1:66" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="24" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -5550,12 +7652,12 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
       <c r="T24" s="16"/>
@@ -5606,7 +7708,7 @@
       <c r="BM24" s="16"/>
       <c r="BN24" s="16"/>
     </row>
-    <row r="25" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
+    <row r="25" spans="1:66" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -5619,7 +7721,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="12"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -5754,11 +7856,11 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="12"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="16"/>
       <c r="S27" s="16"/>
@@ -5822,12 +7924,12 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="16"/>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -5878,73 +7980,73 @@
       <c r="BM28" s="16"/>
       <c r="BN28" s="16"/>
     </row>
-    <row r="29" spans="1:66">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
+    <row r="29" spans="1:66" s="2" customFormat="1" ht="12.9" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
       <c r="P29" s="16"/>
       <c r="Q29" s="16"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="13"/>
-      <c r="BF29" s="13"/>
-      <c r="BG29" s="13"/>
-      <c r="BH29" s="13"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="13"/>
-      <c r="BK29" s="13"/>
-      <c r="BL29" s="13"/>
-      <c r="BM29" s="13"/>
-      <c r="BN29" s="13"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="16"/>
+      <c r="AT29" s="16"/>
+      <c r="AU29" s="16"/>
+      <c r="AV29" s="16"/>
+      <c r="AW29" s="16"/>
+      <c r="AX29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="16"/>
+      <c r="BA29" s="16"/>
+      <c r="BB29" s="16"/>
+      <c r="BC29" s="16"/>
+      <c r="BD29" s="16"/>
+      <c r="BE29" s="16"/>
+      <c r="BF29" s="16"/>
+      <c r="BG29" s="16"/>
+      <c r="BH29" s="16"/>
+      <c r="BI29" s="16"/>
+      <c r="BJ29" s="16"/>
+      <c r="BK29" s="16"/>
+      <c r="BL29" s="16"/>
+      <c r="BM29" s="16"/>
+      <c r="BN29" s="16"/>
     </row>
     <row r="30" spans="1:66">
       <c r="A30" s="6"/>
@@ -6219,17 +8321,17 @@
       <c r="BN33" s="13"/>
     </row>
     <row r="34" spans="1:66">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
@@ -6286,6 +8388,74 @@
       <c r="BM34" s="13"/>
       <c r="BN34" s="13"/>
     </row>
+    <row r="35" spans="1:66">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+      <c r="BM35" s="13"/>
+      <c r="BN35" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
+++ b/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>生产部署</t>
     <phoneticPr fontId="28" type="noConversion"/>
@@ -357,6 +357,10 @@
   </si>
   <si>
     <t>注意：“M”为当月稼动，“N”为下月稼动，空为非稼动。</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -5931,7 +5935,7 @@
   <dimension ref="A1:BN35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5953,7 +5957,9 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="I1" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>

--- a/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
+++ b/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>生产部署</t>
     <phoneticPr fontId="28" type="noConversion"/>
@@ -357,10 +357,6 @@
   </si>
   <si>
     <t>注意：“M”为当月稼动，“N”为下月稼动，空为非稼动。</t>
-    <phoneticPr fontId="28" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
 </sst>
@@ -5935,7 +5931,7 @@
   <dimension ref="A1:BN35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="75" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5957,9 +5953,7 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>

--- a/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
+++ b/SPPSApi/Doc/Template/FS1201_Calendar.xlsx
@@ -348,15 +348,15 @@
     <t>31日（夜）</t>
   </si>
   <si>
-    <t>工厂</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>类别</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>注意：“M”为当月稼动，“N”为下月稼动，空为非稼动。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工场</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5877,7 +5877,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="2" spans="1:66" ht="28.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
